--- a/2025 World Games Ranking.xlsx
+++ b/2025 World Games Ranking.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorstirling/Library/CloudStorage/Dropbox/Documents/Trampoline/Websites/Trampoline Canada Website/Ranking Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E030830-0E4C-7D49-92DB-E3157FED7F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AFE129-D9B5-C14D-AF66-FBCD2F361A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A533BEEB-4696-DF41-A20A-D77C9379EBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="DMT-W" sheetId="1" r:id="rId1"/>
     <sheet name="DMT-M" sheetId="2" r:id="rId2"/>
-    <sheet name="SYN-W" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="SYN-W" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DMT-M'!$A$1:$N$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Gabby Flynn</t>
   </si>
@@ -359,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,6 +382,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -423,13 +432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,44 +793,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="14" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
@@ -858,34 +867,34 @@
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="24">
-        <f>E3+F3</f>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D20" si="0">E3+F3</f>
         <v>77.400000000000006</v>
       </c>
-      <c r="E3" s="24">
-        <f>MAX(G3+H3,K3+L3)</f>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E20" si="1">MAX(G3+H3,K3+L3)</f>
         <v>51.8</v>
       </c>
-      <c r="F3" s="24">
-        <f>IF(G3+H3=K3+L3,MAX(G3,H3,I3,J3,K3,L3,M3,N3),IF(E3=G3+H3,MAX(I3,J3,K3,L3,M3,N3),MAX(G3,H3,I3,J3,M3,N3)))</f>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F20" si="2">IF(G3+H3=K3+L3,MAX(G3,H3,I3,J3,K3,L3,M3,N3),IF(E3=G3+H3,MAX(I3,J3,K3,L3,M3,N3),MAX(G3,H3,I3,J3,M3,N3)))</f>
         <v>25.6</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="10">
         <v>25.7</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="11">
         <v>26.1</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="11">
         <v>25.6</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="12">
         <v>23.4</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" cm="1">
@@ -898,34 +907,34 @@
       <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="24">
-        <f>E4+F4</f>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
         <v>76.8</v>
       </c>
-      <c r="E4" s="24">
-        <f>MAX(G4+H4,K4+L4)</f>
+      <c r="E4" s="11">
+        <f t="shared" si="1"/>
         <v>51.099999999999994</v>
       </c>
-      <c r="F4" s="24">
-        <f>IF(G4+H4=K4+L4,MAX(G4,H4,I4,J4,K4,L4,M4,N4),IF(E4=G4+H4,MAX(I4,J4,K4,L4,M4,N4),MAX(G4,H4,I4,J4,M4,N4)))</f>
+      <c r="F4" s="11">
+        <f t="shared" si="2"/>
         <v>25.7</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="10">
         <v>25.9</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="11">
         <v>25.2</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="11">
         <v>25.7</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="12">
         <v>18.399999999999999</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" cm="1">
@@ -938,34 +947,34 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="24">
-        <f>E5+F5</f>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
         <v>74.2</v>
       </c>
-      <c r="E5" s="24">
-        <f>MAX(G5+H5,K5+L5)</f>
+      <c r="E5" s="11">
+        <f t="shared" si="1"/>
         <v>48.7</v>
       </c>
-      <c r="F5" s="24">
-        <f>IF(G5+H5=K5+L5,MAX(G5,H5,I5,J5,K5,L5,M5,N5),IF(E5=G5+H5,MAX(I5,J5,K5,L5,M5,N5),MAX(G5,H5,I5,J5,M5,N5)))</f>
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="10">
         <v>24.5</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="11">
         <v>24.2</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="11">
         <v>25.5</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="12">
         <v>25</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" cm="1">
@@ -978,34 +987,34 @@
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="24">
-        <f>E6+F6</f>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
         <v>73.8</v>
       </c>
-      <c r="E6" s="24">
-        <f>MAX(G6+H6,K6+L6)</f>
+      <c r="E6" s="11">
+        <f t="shared" si="1"/>
         <v>49.1</v>
       </c>
-      <c r="F6" s="24">
-        <f>IF(G6+H6=K6+L6,MAX(G6,H6,I6,J6,K6,L6,M6,N6),IF(E6=G6+H6,MAX(I6,J6,K6,L6,M6,N6),MAX(G6,H6,I6,J6,M6,N6)))</f>
+      <c r="F6" s="11">
+        <f t="shared" si="2"/>
         <v>24.7</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="10">
         <v>23.5</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="11">
         <v>25.6</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="11">
         <v>24.7</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="12">
         <v>23.9</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" cm="1">
@@ -1018,34 +1027,34 @@
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="24">
-        <f>E7+F7</f>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
         <v>73.759999999999991</v>
       </c>
-      <c r="E7" s="24">
-        <f>MAX(G7+H7,K7+L7)</f>
+      <c r="E7" s="11">
+        <f t="shared" si="1"/>
         <v>48.26</v>
       </c>
-      <c r="F7" s="24">
-        <f>IF(G7+H7=K7+L7,MAX(G7,H7,I7,J7,K7,L7,M7,N7),IF(E7=G7+H7,MAX(I7,J7,K7,L7,M7,N7),MAX(G7,H7,I7,J7,M7,N7)))</f>
+      <c r="F7" s="11">
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="10">
         <v>25.06</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="11">
         <v>23.2</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="11">
         <v>25.5</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="12">
         <v>24.6</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" cm="1">
@@ -1058,34 +1067,34 @@
       <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="24">
-        <f>E8+F8</f>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
         <v>72.699999999999989</v>
       </c>
-      <c r="E8" s="24">
-        <f>MAX(G8+H8,K8+L8)</f>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
         <v>48.099999999999994</v>
       </c>
-      <c r="F8" s="24">
-        <f>IF(G8+H8=K8+L8,MAX(G8,H8,I8,J8,K8,L8,M8,N8),IF(E8=G8+H8,MAX(I8,J8,K8,L8,M8,N8),MAX(G8,H8,I8,J8,M8,N8)))</f>
+      <c r="F8" s="11">
+        <f t="shared" si="2"/>
         <v>24.6</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="10">
         <v>23.7</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="11">
         <v>24.4</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="11">
         <v>24.4</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="12">
         <v>24.6</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="str" cm="1">
@@ -1096,34 +1105,34 @@
         <v>14</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="24">
-        <f>E9+F9</f>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
         <v>72.099999999999994</v>
       </c>
-      <c r="E9" s="24">
-        <f>MAX(G9+H9,K9+L9)</f>
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
         <v>48.9</v>
       </c>
-      <c r="F9" s="24">
-        <f>IF(G9+H9=K9+L9,MAX(G9,H9,I9,J9,K9,L9,M9,N9),IF(E9=G9+H9,MAX(I9,J9,K9,L9,M9,N9),MAX(G9,H9,I9,J9,M9,N9)))</f>
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
         <v>23.2</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="10">
         <v>24.2</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="11">
         <v>24.7</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="11">
         <v>23.2</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="12">
         <v>15</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" cm="1">
@@ -1136,34 +1145,34 @@
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="24">
-        <f>E10+F10</f>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
         <v>71.7</v>
       </c>
-      <c r="E10" s="24">
-        <f>MAX(G10+H10,K10+L10)</f>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
         <v>47.2</v>
       </c>
-      <c r="F10" s="24">
-        <f>IF(G10+H10=K10+L10,MAX(G10,H10,I10,J10,K10,L10,M10,N10),IF(E10=G10+H10,MAX(I10,J10,K10,L10,M10,N10),MAX(G10,H10,I10,J10,M10,N10)))</f>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
         <v>24.5</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="10">
         <v>23.4</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="11">
         <v>23.8</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="11">
         <v>24.3</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="12">
         <v>24.5</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="str" cm="1">
@@ -1174,34 +1183,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="24">
-        <f>E11+F11</f>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
         <v>69.099999999999994</v>
       </c>
-      <c r="E11" s="24">
-        <f>MAX(G11+H11,K11+L11)</f>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
         <v>48.5</v>
       </c>
-      <c r="F11" s="24">
-        <f>IF(G11+H11=K11+L11,MAX(G11,H11,I11,J11,K11,L11,M11,N11),IF(E11=G11+H11,MAX(I11,J11,K11,L11,M11,N11),MAX(G11,H11,I11,J11,M11,N11)))</f>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
         <v>20.6</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="10">
         <v>24.4</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="11">
         <v>24.1</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="11">
         <v>20.6</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="12">
         <v>17.8</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="str" cm="1">
@@ -1212,34 +1221,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="24">
-        <f>E12+F12</f>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
         <v>67.2</v>
       </c>
-      <c r="E12" s="24">
-        <f>MAX(G12+H12,K12+L12)</f>
+      <c r="E12" s="11">
+        <f t="shared" si="1"/>
         <v>49.4</v>
       </c>
-      <c r="F12" s="24">
-        <f>IF(G12+H12=K12+L12,MAX(G12,H12,I12,J12,K12,L12,M12,N12),IF(E12=G12+H12,MAX(I12,J12,K12,L12,M12,N12),MAX(G12,H12,I12,J12,M12,N12)))</f>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
         <v>17.8</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="10">
         <v>25</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="11">
         <v>24.4</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="11">
         <v>17.8</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="12">
         <v>17.5</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="str" cm="1">
@@ -1250,30 +1259,30 @@
         <v>20</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="24">
-        <f>E13+F13</f>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
         <v>47.2</v>
       </c>
-      <c r="E13" s="24">
-        <f>MAX(G13+H13,K13+L13)</f>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
         <v>47.2</v>
       </c>
-      <c r="F13" s="24">
-        <f>IF(G13+H13=K13+L13,MAX(G13,H13,I13,J13,K13,L13,M13,N13),IF(E13=G13+H13,MAX(I13,J13,K13,L13,M13,N13),MAX(G13,H13,I13,J13,M13,N13)))</f>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="10">
         <v>23.8</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="11">
         <v>23.4</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="str" cm="1">
@@ -1284,30 +1293,30 @@
         <v>21</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="24">
-        <f>E14+F14</f>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
         <v>46.4</v>
       </c>
-      <c r="E14" s="24">
-        <f>MAX(G14+H14,K14+L14)</f>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
         <v>46.4</v>
       </c>
-      <c r="F14" s="24">
-        <f>IF(G14+H14=K14+L14,MAX(G14,H14,I14,J14,K14,L14,M14,N14),IF(E14=G14+H14,MAX(I14,J14,K14,L14,M14,N14),MAX(G14,H14,I14,J14,M14,N14)))</f>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="10">
         <v>22.2</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="11">
         <v>24.2</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="str" cm="1">
@@ -1318,30 +1327,30 @@
         <v>22</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="24">
-        <f>E15+F15</f>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="E15" s="24">
-        <f>MAX(G15+H15,K15+L15)</f>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
         <v>41.5</v>
       </c>
-      <c r="F15" s="24">
-        <f>IF(G15+H15=K15+L15,MAX(G15,H15,I15,J15,K15,L15,M15,N15),IF(E15=G15+H15,MAX(I15,J15,K15,L15,M15,N15),MAX(G15,H15,I15,J15,M15,N15)))</f>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="10">
         <v>17.8</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="11">
         <v>23.7</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="str" cm="1">
@@ -1352,30 +1361,30 @@
         <v>23</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="24">
-        <f>E16+F16</f>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E16" s="24">
-        <f>MAX(G16+H16,K16+L16)</f>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="F16" s="24">
-        <f>IF(G16+H16=K16+L16,MAX(G16,H16,I16,J16,K16,L16,M16,N16),IF(E16=G16+H16,MAX(I16,J16,K16,L16,M16,N16),MAX(G16,H16,I16,J16,M16,N16)))</f>
+      <c r="F16" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="10">
         <v>17.600000000000001</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="11">
         <v>23.4</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="str" cm="1">
@@ -1386,30 +1395,30 @@
         <v>24</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="24">
-        <f>E17+F17</f>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
         <v>39.099999999999994</v>
       </c>
-      <c r="E17" s="24">
-        <f>MAX(G17+H17,K17+L17)</f>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
         <v>39.099999999999994</v>
       </c>
-      <c r="F17" s="24">
-        <f>IF(G17+H17=K17+L17,MAX(G17,H17,I17,J17,K17,L17,M17,N17),IF(E17=G17+H17,MAX(I17,J17,K17,L17,M17,N17),MAX(G17,H17,I17,J17,M17,N17)))</f>
+      <c r="F17" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="10">
         <v>23.9</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="11">
         <v>15.2</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="str" cm="1">
@@ -1420,30 +1429,30 @@
         <v>25</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="24">
-        <f>E18+F18</f>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="E18" s="24">
-        <f>MAX(G18+H18,K18+L18)</f>
+      <c r="E18" s="11">
+        <f t="shared" si="1"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="F18" s="24">
-        <f>IF(G18+H18=K18+L18,MAX(G18,H18,I18,J18,K18,L18,M18,N18),IF(E18=G18+H18,MAX(I18,J18,K18,L18,M18,N18),MAX(G18,H18,I18,J18,M18,N18)))</f>
+      <c r="F18" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="10">
         <v>17.600000000000001</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="11">
         <v>15.2</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="str" cm="1">
@@ -1454,30 +1463,30 @@
         <v>26</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="24">
-        <f>E19+F19</f>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="E19" s="24">
-        <f>MAX(G19+H19,K19+L19)</f>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="F19" s="24">
-        <f>IF(G19+H19=K19+L19,MAX(G19,H19,I19,J19,K19,L19,M19,N19),IF(E19=G19+H19,MAX(I19,J19,K19,L19,M19,N19),MAX(G19,H19,I19,J19,M19,N19)))</f>
+      <c r="F19" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="10">
         <v>0</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="11">
         <v>24.5</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="str" cm="1">
@@ -1488,30 +1497,30 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="24">
-        <f>E20+F20</f>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
-      <c r="E20" s="24">
-        <f>MAX(G20+H20,K20+L20)</f>
+      <c r="E20" s="11">
+        <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="F20" s="24">
-        <f>IF(G20+H20=K20+L20,MAX(G20,H20,I20,J20,K20,L20,M20,N20),IF(E20=G20+H20,MAX(I20,J20,K20,L20,M20,N20),MAX(G20,H20,I20,J20,M20,N20)))</f>
+      <c r="F20" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="10">
         <v>20.5</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="11">
         <v>0</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="str" cm="1">
@@ -2999,44 +3008,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="14" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3073,34 +3082,34 @@
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="24">
-        <f>E3+F3</f>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D28" si="0">E3+F3</f>
         <v>81.2</v>
       </c>
-      <c r="E3" s="24">
-        <f>MAX(G3+H3,K3+L3)</f>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E28" si="1">MAX(G3+H3,K3+L3)</f>
         <v>53.6</v>
       </c>
-      <c r="F3" s="24">
-        <f>IF(G3+H3=K3+L3,MAX(G3,H3,I3,J3,K3,L3,M3,N3),IF(E3=G3+H3,MAX(I3,J3,K3,L3,M3,N3),MAX(G3,H3,I3,J3,M3,N3)))</f>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F28" si="2">IF(G3+H3=K3+L3,MAX(G3,H3,I3,J3,K3,L3,M3,N3),IF(E3=G3+H3,MAX(I3,J3,K3,L3,M3,N3),MAX(G3,H3,I3,J3,M3,N3)))</f>
         <v>27.6</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="10">
         <v>27.3</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="11">
         <v>26.3</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="11">
         <v>27.6</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="12">
         <v>27.3</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" cm="1">
@@ -3113,34 +3122,34 @@
       <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="24">
-        <f>E4+F4</f>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="E4" s="24">
-        <f>MAX(G4+H4,K4+L4)</f>
+      <c r="E4" s="11">
+        <f t="shared" si="1"/>
         <v>54.2</v>
       </c>
-      <c r="F4" s="24">
-        <f>IF(G4+H4=K4+L4,MAX(G4,H4,I4,J4,K4,L4,M4,N4),IF(E4=G4+H4,MAX(I4,J4,K4,L4,M4,N4),MAX(G4,H4,I4,J4,M4,N4)))</f>
+      <c r="F4" s="11">
+        <f t="shared" si="2"/>
         <v>26.8</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="10">
         <v>27.4</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="11">
         <v>26.8</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="11">
         <v>26.8</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="12">
         <v>25.7</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" cm="1">
@@ -3153,34 +3162,34 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="24">
-        <f>E5+F5</f>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
         <v>80.2</v>
       </c>
-      <c r="E5" s="24">
-        <f>MAX(G5+H5,K5+L5)</f>
+      <c r="E5" s="11">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="F5" s="24">
-        <f>IF(G5+H5=K5+L5,MAX(G5,H5,I5,J5,K5,L5,M5,N5),IF(E5=G5+H5,MAX(I5,J5,K5,L5,M5,N5),MAX(G5,H5,I5,J5,M5,N5)))</f>
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
         <v>27.2</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="10">
         <v>27</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="11">
         <v>26</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="11">
         <v>23.3</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="12">
         <v>27.2</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" cm="1">
@@ -3193,34 +3202,34 @@
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="24">
-        <f>E6+F6</f>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
         <v>79.900000000000006</v>
       </c>
-      <c r="E6" s="24">
-        <f>MAX(G6+H6,K6+L6)</f>
+      <c r="E6" s="11">
+        <f t="shared" si="1"/>
         <v>52.6</v>
       </c>
-      <c r="F6" s="24">
-        <f>IF(G6+H6=K6+L6,MAX(G6,H6,I6,J6,K6,L6,M6,N6),IF(E6=G6+H6,MAX(I6,J6,K6,L6,M6,N6),MAX(G6,H6,I6,J6,M6,N6)))</f>
+      <c r="F6" s="11">
+        <f t="shared" si="2"/>
         <v>27.3</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="10">
         <v>26.1</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="11">
         <v>26.5</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="11">
         <v>26.7</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="12">
         <v>27.3</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" cm="1">
@@ -3233,34 +3242,34 @@
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="24">
-        <f>E7+F7</f>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
         <v>79.099999999999994</v>
       </c>
-      <c r="E7" s="24">
-        <f>MAX(G7+H7,K7+L7)</f>
+      <c r="E7" s="11">
+        <f t="shared" si="1"/>
         <v>52.7</v>
       </c>
-      <c r="F7" s="24">
-        <f>IF(G7+H7=K7+L7,MAX(G7,H7,I7,J7,K7,L7,M7,N7),IF(E7=G7+H7,MAX(I7,J7,K7,L7,M7,N7),MAX(G7,H7,I7,J7,M7,N7)))</f>
+      <c r="F7" s="11">
+        <f t="shared" si="2"/>
         <v>26.4</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="10">
         <v>27</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="11">
         <v>25.7</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="11">
         <v>26.4</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="12">
         <v>25.7</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="str" cm="1">
@@ -3271,34 +3280,34 @@
         <v>36</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="24">
-        <f>E8+F8</f>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
         <v>77.7</v>
       </c>
-      <c r="E8" s="24">
-        <f>MAX(G8+H8,K8+L8)</f>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
         <v>51.1</v>
       </c>
-      <c r="F8" s="24">
-        <f>IF(G8+H8=K8+L8,MAX(G8,H8,I8,J8,K8,L8,M8,N8),IF(E8=G8+H8,MAX(I8,J8,K8,L8,M8,N8),MAX(G8,H8,I8,J8,M8,N8)))</f>
+      <c r="F8" s="11">
+        <f t="shared" si="2"/>
         <v>26.6</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="10">
         <v>26.1</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="11">
         <v>25</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="11">
         <v>20.5</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="12">
         <v>26.6</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="str" cm="1">
@@ -3309,34 +3318,34 @@
         <v>38</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="24">
-        <f>E9+F9</f>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
-      <c r="E9" s="24">
-        <f>MAX(G9+H9,K9+L9)</f>
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
         <v>50.1</v>
       </c>
-      <c r="F9" s="24">
-        <f>IF(G9+H9=K9+L9,MAX(G9,H9,I9,J9,K9,L9,M9,N9),IF(E9=G9+H9,MAX(I9,J9,K9,L9,M9,N9),MAX(G9,H9,I9,J9,M9,N9)))</f>
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
         <v>26.4</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="10">
         <v>25</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="11">
         <v>25.1</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="11">
         <v>26.4</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="12">
         <v>24.1</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="str" cm="1">
@@ -3347,34 +3356,34 @@
         <v>37</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="24">
-        <f>E10+F10</f>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
         <v>75.7</v>
       </c>
-      <c r="E10" s="24">
-        <f>MAX(G10+H10,K10+L10)</f>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
         <v>50.9</v>
       </c>
-      <c r="F10" s="24">
-        <f>IF(G10+H10=K10+L10,MAX(G10,H10,I10,J10,K10,L10,M10,N10),IF(E10=G10+H10,MAX(I10,J10,K10,L10,M10,N10),MAX(G10,H10,I10,J10,M10,N10)))</f>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
         <v>24.8</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="10">
         <v>26.2</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="11">
         <v>24.7</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="11">
         <v>24.7</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="12">
         <v>24.8</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="str" cm="1">
@@ -3385,34 +3394,34 @@
         <v>39</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="24">
-        <f>E11+F11</f>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
         <v>75.400000000000006</v>
       </c>
-      <c r="E11" s="24">
-        <f>MAX(G11+H11,K11+L11)</f>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F11" s="24">
-        <f>IF(G11+H11=K11+L11,MAX(G11,H11,I11,J11,K11,L11,M11,N11),IF(E11=G11+H11,MAX(I11,J11,K11,L11,M11,N11),MAX(G11,H11,I11,J11,M11,N11)))</f>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
         <v>25.4</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="10">
         <v>24.9</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="11">
         <v>25.1</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="11">
         <v>25.4</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="12">
         <v>25.4</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="str" cm="1">
@@ -3423,34 +3432,34 @@
         <v>40</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="24">
-        <f>E12+F12</f>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
         <v>75.099999999999994</v>
       </c>
-      <c r="E12" s="24">
-        <f>MAX(G12+H12,K12+L12)</f>
+      <c r="E12" s="11">
+        <f t="shared" si="1"/>
         <v>49.2</v>
       </c>
-      <c r="F12" s="24">
-        <f>IF(G12+H12=K12+L12,MAX(G12,H12,I12,J12,K12,L12,M12,N12),IF(E12=G12+H12,MAX(I12,J12,K12,L12,M12,N12),MAX(G12,H12,I12,J12,M12,N12)))</f>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
         <v>25.9</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="10">
         <v>24.6</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="11">
         <v>24.6</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="11">
         <v>25.9</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="12">
         <v>24.2</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="str" cm="1">
@@ -3461,30 +3470,30 @@
         <v>41</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="24">
-        <f>E13+F13</f>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="E13" s="24">
-        <f>MAX(G13+H13,K13+L13)</f>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="F13" s="24">
-        <f>IF(G13+H13=K13+L13,MAX(G13,H13,I13,J13,K13,L13,M13,N13),IF(E13=G13+H13,MAX(I13,J13,K13,L13,M13,N13),MAX(G13,H13,I13,J13,M13,N13)))</f>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="10">
         <v>23.2</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="11">
         <v>25.8</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" cm="1">
@@ -3497,30 +3506,30 @@
       <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="24">
-        <f>E14+F14</f>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
         <v>48.2</v>
       </c>
-      <c r="E14" s="24">
-        <f>MAX(G14+H14,K14+L14)</f>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
         <v>48.2</v>
       </c>
-      <c r="F14" s="24">
-        <f>IF(G14+H14=K14+L14,MAX(G14,H14,I14,J14,K14,L14,M14,N14),IF(E14=G14+H14,MAX(I14,J14,K14,L14,M14,N14),MAX(G14,H14,I14,J14,M14,N14)))</f>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="10">
         <v>19.3</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="11">
         <v>28.9</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="str" cm="1">
@@ -3531,30 +3540,30 @@
         <v>43</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="24">
-        <f>E15+F15</f>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
         <v>48.1</v>
       </c>
-      <c r="E15" s="24">
-        <f>MAX(G15+H15,K15+L15)</f>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
         <v>48.1</v>
       </c>
-      <c r="F15" s="24">
-        <f>IF(G15+H15=K15+L15,MAX(G15,H15,I15,J15,K15,L15,M15,N15),IF(E15=G15+H15,MAX(I15,J15,K15,L15,M15,N15),MAX(G15,H15,I15,J15,M15,N15)))</f>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="10">
         <v>24.6</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="11">
         <v>23.5</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="str" cm="1">
@@ -3565,30 +3574,30 @@
         <v>44</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="24">
-        <f>E16+F16</f>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
         <v>46.8</v>
       </c>
-      <c r="E16" s="24">
-        <f>MAX(G16+H16,K16+L16)</f>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
         <v>46.8</v>
       </c>
-      <c r="F16" s="24">
-        <f>IF(G16+H16=K16+L16,MAX(G16,H16,I16,J16,K16,L16,M16,N16),IF(E16=G16+H16,MAX(I16,J16,K16,L16,M16,N16),MAX(G16,H16,I16,J16,M16,N16)))</f>
+      <c r="F16" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="10">
         <v>21.7</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="11">
         <v>25.1</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="str" cm="1">
@@ -3599,30 +3608,30 @@
         <v>45</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="24">
-        <f>E17+F17</f>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
         <v>46.7</v>
       </c>
-      <c r="E17" s="24">
-        <f>MAX(G17+H17,K17+L17)</f>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
         <v>46.7</v>
       </c>
-      <c r="F17" s="24">
-        <f>IF(G17+H17=K17+L17,MAX(G17,H17,I17,J17,K17,L17,M17,N17),IF(E17=G17+H17,MAX(I17,J17,K17,L17,M17,N17),MAX(G17,H17,I17,J17,M17,N17)))</f>
+      <c r="F17" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="10">
         <v>24.7</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="11">
         <v>22</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="str" cm="1">
@@ -3633,30 +3642,30 @@
         <v>46</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="24">
-        <f>E18+F18</f>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
         <v>46.7</v>
       </c>
-      <c r="E18" s="24">
-        <f>MAX(G18+H18,K18+L18)</f>
+      <c r="E18" s="11">
+        <f t="shared" si="1"/>
         <v>46.7</v>
       </c>
-      <c r="F18" s="24">
-        <f>IF(G18+H18=K18+L18,MAX(G18,H18,I18,J18,K18,L18,M18,N18),IF(E18=G18+H18,MAX(I18,J18,K18,L18,M18,N18),MAX(G18,H18,I18,J18,M18,N18)))</f>
+      <c r="F18" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="10">
         <v>25.2</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="11">
         <v>21.5</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="str" cm="1">
@@ -3667,30 +3676,30 @@
         <v>47</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="24">
-        <f>E19+F19</f>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
         <v>46.5</v>
       </c>
-      <c r="E19" s="24">
-        <f>MAX(G19+H19,K19+L19)</f>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
         <v>46.5</v>
       </c>
-      <c r="F19" s="24">
-        <f>IF(G19+H19=K19+L19,MAX(G19,H19,I19,J19,K19,L19,M19,N19),IF(E19=G19+H19,MAX(I19,J19,K19,L19,M19,N19),MAX(G19,H19,I19,J19,M19,N19)))</f>
+      <c r="F19" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="10">
         <v>22.9</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="11">
         <v>23.6</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="str" cm="1">
@@ -3701,30 +3710,30 @@
         <v>48</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="24">
-        <f>E20+F20</f>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
         <v>46.4</v>
       </c>
-      <c r="E20" s="24">
-        <f>MAX(G20+H20,K20+L20)</f>
+      <c r="E20" s="11">
+        <f t="shared" si="1"/>
         <v>46.4</v>
       </c>
-      <c r="F20" s="24">
-        <f>IF(G20+H20=K20+L20,MAX(G20,H20,I20,J20,K20,L20,M20,N20),IF(E20=G20+H20,MAX(I20,J20,K20,L20,M20,N20),MAX(G20,H20,I20,J20,M20,N20)))</f>
+      <c r="F20" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="10">
         <v>26</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="11">
         <v>20.399999999999999</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="str" cm="1">
@@ -3735,30 +3744,30 @@
         <v>49</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="24">
-        <f>E21+F21</f>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
         <v>46.2</v>
       </c>
-      <c r="E21" s="24">
-        <f>MAX(G21+H21,K21+L21)</f>
+      <c r="E21" s="11">
+        <f t="shared" si="1"/>
         <v>46.2</v>
       </c>
-      <c r="F21" s="24">
-        <f>IF(G21+H21=K21+L21,MAX(G21,H21,I21,J21,K21,L21,M21,N21),IF(E21=G21+H21,MAX(I21,J21,K21,L21,M21,N21),MAX(G21,H21,I21,J21,M21,N21)))</f>
+      <c r="F21" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="10">
         <v>24</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="11">
         <v>22.2</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="str" cm="1">
@@ -3769,30 +3778,30 @@
         <v>50</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="24">
-        <f>E22+F22</f>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
         <v>44.3</v>
       </c>
-      <c r="E22" s="24">
-        <f>MAX(G22+H22,K22+L22)</f>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
         <v>44.3</v>
       </c>
-      <c r="F22" s="24">
-        <f>IF(G22+H22=K22+L22,MAX(G22,H22,I22,J22,K22,L22,M22,N22),IF(E22=G22+H22,MAX(I22,J22,K22,L22,M22,N22),MAX(G22,H22,I22,J22,M22,N22)))</f>
+      <c r="F22" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="10">
         <v>25.9</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="11">
         <v>18.399999999999999</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="str" cm="1">
@@ -3803,30 +3812,30 @@
         <v>51</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="24">
-        <f>E23+F23</f>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
         <v>43.4</v>
       </c>
-      <c r="E23" s="24">
-        <f>MAX(G23+H23,K23+L23)</f>
+      <c r="E23" s="11">
+        <f t="shared" si="1"/>
         <v>43.4</v>
       </c>
-      <c r="F23" s="24">
-        <f>IF(G23+H23=K23+L23,MAX(G23,H23,I23,J23,K23,L23,M23,N23),IF(E23=G23+H23,MAX(I23,J23,K23,L23,M23,N23),MAX(G23,H23,I23,J23,M23,N23)))</f>
+      <c r="F23" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="10">
         <v>18.2</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="11">
         <v>25.2</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="str" cm="1">
@@ -3837,30 +3846,30 @@
         <v>52</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="24">
-        <f>E24+F24</f>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="E24" s="24">
-        <f>MAX(G24+H24,K24+L24)</f>
+      <c r="E24" s="11">
+        <f t="shared" si="1"/>
         <v>41.5</v>
       </c>
-      <c r="F24" s="24">
-        <f>IF(G24+H24=K24+L24,MAX(G24,H24,I24,J24,K24,L24,M24,N24),IF(E24=G24+H24,MAX(I24,J24,K24,L24,M24,N24),MAX(G24,H24,I24,J24,M24,N24)))</f>
+      <c r="F24" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="10">
         <v>21.2</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="11">
         <v>20.3</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" cm="1">
@@ -3873,30 +3882,30 @@
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="24">
-        <f>E25+F25</f>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="E25" s="24">
-        <f>MAX(G25+H25,K25+L25)</f>
+      <c r="E25" s="11">
+        <f t="shared" si="1"/>
         <v>29.6</v>
       </c>
-      <c r="F25" s="24">
-        <f>IF(G25+H25=K25+L25,MAX(G25,H25,I25,J25,K25,L25,M25,N25),IF(E25=G25+H25,MAX(I25,J25,K25,L25,M25,N25),MAX(G25,H25,I25,J25,M25,N25)))</f>
+      <c r="F25" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="10">
         <v>29.6</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="str" cm="1">
@@ -3907,30 +3916,30 @@
         <v>54</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="24">
-        <f>E26+F26</f>
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
         <v>26.1</v>
       </c>
-      <c r="E26" s="24">
-        <f>MAX(G26+H26,K26+L26)</f>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
         <v>26.1</v>
       </c>
-      <c r="F26" s="24">
-        <f>IF(G26+H26=K26+L26,MAX(G26,H26,I26,J26,K26,L26,M26,N26),IF(E26=G26+H26,MAX(I26,J26,K26,L26,M26,N26),MAX(G26,H26,I26,J26,M26,N26)))</f>
+      <c r="F26" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="10">
         <v>0</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="11">
         <v>26.1</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" cm="1">
@@ -3943,30 +3952,30 @@
       <c r="C27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="24">
-        <f>E27+F27</f>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
         <v>24.1</v>
       </c>
-      <c r="E27" s="24">
-        <f>MAX(G27+H27,K27+L27)</f>
+      <c r="E27" s="11">
+        <f t="shared" si="1"/>
         <v>24.1</v>
       </c>
-      <c r="F27" s="24">
-        <f>IF(G27+H27=K27+L27,MAX(G27,H27,I27,J27,K27,L27,M27,N27),IF(E27=G27+H27,MAX(I27,J27,K27,L27,M27,N27),MAX(G27,H27,I27,J27,M27,N27)))</f>
+      <c r="F27" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="10">
         <v>24.1</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="11">
         <v>0</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="str" cm="1">
@@ -3977,30 +3986,30 @@
         <v>56</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="24">
-        <f>E28+F28</f>
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
         <v>22.8</v>
       </c>
-      <c r="E28" s="24">
-        <f>MAX(G28+H28,K28+L28)</f>
+      <c r="E28" s="11">
+        <f t="shared" si="1"/>
         <v>22.8</v>
       </c>
-      <c r="F28" s="24">
-        <f>IF(G28+H28=K28+L28,MAX(G28,H28,I28,J28,K28,L28,M28,N28),IF(E28=G28+H28,MAX(I28,J28,K28,L28,M28,N28),MAX(G28,H28,I28,J28,M28,N28)))</f>
+      <c r="F28" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="10">
         <v>22.8</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="11">
         <v>0</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="str" cm="1">
@@ -5343,42 +5352,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="7" t="s">
         <v>62</v>
       </c>
@@ -5409,57 +5418,71 @@
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="26">
         <f>E3+F3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="24">
+        <v>97.94</v>
+      </c>
+      <c r="E3" s="26">
         <f>MAX(G3:L3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="24">
+        <v>49.13</v>
+      </c>
+      <c r="F3" s="26">
         <f>IF(COUNT(G3:L3)&gt;1,LARGE(G3:L3,2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="3"/>
+        <v>48.81</v>
+      </c>
+      <c r="G3" s="27">
+        <v>48.81</v>
+      </c>
+      <c r="H3" s="26">
+        <v>49.13</v>
+      </c>
+      <c r="I3" s="26">
+        <v>9.69</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="str" cm="1">
+      <c r="A4" cm="1">
         <f t="array" ref="A4">IF(C4="P",SUMPRODUCT(--(D$3:D$100&gt;D4),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="24">
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="26">
         <f>E4+F4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
-        <f t="shared" ref="E4:E7" si="0">MAX(G4:L4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
-        <f t="shared" ref="F4:F7" si="1">IF(COUNT(G4:L4)&gt;1,LARGE(G4:L4,2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="3"/>
+        <v>94.830000000000013</v>
+      </c>
+      <c r="E4" s="26">
+        <f>MAX(G4:L4)</f>
+        <v>47.7</v>
+      </c>
+      <c r="F4" s="26">
+        <f>IF(COUNT(G4:L4)&gt;1,LARGE(G4:L4,2),0)</f>
+        <v>47.13</v>
+      </c>
+      <c r="G4" s="27">
+        <v>47.7</v>
+      </c>
+      <c r="H4" s="26">
+        <v>47.13</v>
+      </c>
+      <c r="I4" s="26">
+        <v>46.45</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" cm="1">
         <f t="array" ref="A5">IF(C5="P",SUMPRODUCT(--(D$3:D$100&gt;D5),--(C$3:C$100="P"))+1,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -5467,24 +5490,30 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="26">
         <f>E5+F5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="3"/>
+        <v>93.34</v>
+      </c>
+      <c r="E5" s="26">
+        <f>MAX(G5:L5)</f>
+        <v>47.36</v>
+      </c>
+      <c r="F5" s="26">
+        <f>IF(COUNT(G5:L5)&gt;1,LARGE(G5:L5,2),0)</f>
+        <v>45.98</v>
+      </c>
+      <c r="G5" s="27">
+        <v>41.93</v>
+      </c>
+      <c r="H5" s="26">
+        <v>45.98</v>
+      </c>
+      <c r="I5" s="26">
+        <v>47.36</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="str" cm="1">
@@ -5495,24 +5524,30 @@
         <v>60</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="24">
+      <c r="D6" s="26">
         <f>E6+F6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="3"/>
+        <v>70.650000000000006</v>
+      </c>
+      <c r="E6" s="26">
+        <f>MAX(G6:L6)</f>
+        <v>44.2</v>
+      </c>
+      <c r="F6" s="26">
+        <f>IF(COUNT(G6:L6)&gt;1,LARGE(G6:L6,2),0)</f>
+        <v>26.45</v>
+      </c>
+      <c r="G6" s="27">
+        <v>44.2</v>
+      </c>
+      <c r="H6" s="26">
+        <v>26.45</v>
+      </c>
+      <c r="I6" s="26">
+        <v>23.1</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="str" cm="1">
@@ -5523,24 +5558,28 @@
         <v>61</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="24">
+      <c r="D7" s="26">
         <f>E7+F7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="3"/>
+        <v>30.75</v>
+      </c>
+      <c r="E7" s="26">
+        <f>MAX(G7:L7)</f>
+        <v>25.75</v>
+      </c>
+      <c r="F7" s="26">
+        <f>IF(COUNT(G7:L7)&gt;1,LARGE(G7:L7,2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="27">
+        <v>5</v>
+      </c>
+      <c r="H7" s="26">
+        <v>25.75</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="str" cm="1">
@@ -5548,14 +5587,15 @@
         <v/>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="3"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="str" cm="1">
@@ -5563,14 +5603,15 @@
         <v/>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="3"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="str" cm="1">
@@ -5578,14 +5619,15 @@
         <v/>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="3"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="str" cm="1">
@@ -5593,14 +5635,15 @@
         <v/>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="3"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="str" cm="1">
@@ -5608,14 +5651,15 @@
         <v/>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="3"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="str" cm="1">
@@ -5623,14 +5667,15 @@
         <v/>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="3"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="str" cm="1">
@@ -5638,14 +5683,15 @@
         <v/>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="str" cm="1">
@@ -5653,14 +5699,15 @@
         <v/>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="3"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str" cm="1">
@@ -5668,14 +5715,15 @@
         <v/>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="3"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str" cm="1">

--- a/2025 World Games Ranking.xlsx
+++ b/2025 World Games Ranking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorstirling/Library/CloudStorage/Dropbox/Documents/Trampoline/Websites/Trampoline Canada Website/Ranking Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AFE129-D9B5-C14D-AF66-FBCD2F361A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83602CB6-BE30-FC47-B759-B1B81EE47361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A533BEEB-4696-DF41-A20A-D77C9379EBAE}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Gabby Flynn</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Kalena Soehn</t>
-  </si>
-  <si>
-    <t>Amelia Dion</t>
   </si>
   <si>
     <t>Brooklyn Olsen</t>
@@ -267,6 +264,30 @@
   <si>
     <t>2nd Best Routine</t>
   </si>
+  <si>
+    <t>Noga-Bard/Tam</t>
+  </si>
+  <si>
+    <t>Connor Wehage</t>
+  </si>
+  <si>
+    <t>Joey Couture</t>
+  </si>
+  <si>
+    <t>Addis Deobald</t>
+  </si>
+  <si>
+    <t>Caelyn Angst</t>
+  </si>
+  <si>
+    <t>Emily Pepper</t>
+  </si>
+  <si>
+    <t>Zoe Phaneuf</t>
+  </si>
+  <si>
+    <t>Amélia Dion</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +413,19 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,15 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05718F54-B297-D34C-A083-EC279B954987}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -793,44 +818,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="17" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
@@ -856,28 +881,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" cm="1">
-        <f t="array" ref="A3">IF(C3="P",SUMPRODUCT(--(D$3:D$100&gt;D3),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A3">IF(C3="P",SUMPRODUCT(--(D$3:D$103&gt;D3),--(C$3:C$103="P"))+1,"")</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="11">
-        <f t="shared" ref="D3:D20" si="0">E3+F3</f>
-        <v>77.400000000000006</v>
+        <f t="shared" ref="D3:D24" si="0">E3+F3</f>
+        <v>79</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E20" si="1">MAX(G3+H3,K3+L3)</f>
+        <f t="shared" ref="E3:E24" si="1">MAX(G3+H3,K3+L3)</f>
         <v>51.8</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F20" si="2">IF(G3+H3=K3+L3,MAX(G3,H3,I3,J3,K3,L3,M3,N3),IF(E3=G3+H3,MAX(I3,J3,K3,L3,M3,N3),MAX(G3,H3,I3,J3,M3,N3)))</f>
-        <v>25.6</v>
+        <f t="shared" ref="F3:F24" si="2">IF(G3+H3=K3+L3,MAX(G3,H3,I3,J3,K3,L3,M3,N3),IF(E3=G3+H3,MAX(I3,J3,K3,L3,M3,N3),MAX(G3,H3,I3,J3,M3,N3)))</f>
+        <v>27.2</v>
       </c>
       <c r="G3" s="10">
         <v>25.7</v>
@@ -891,205 +916,235 @@
       <c r="J3" s="12">
         <v>23.4</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
+      <c r="K3" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="L3" s="11">
+        <v>24.2</v>
+      </c>
+      <c r="M3" s="11">
+        <v>27.2</v>
+      </c>
+      <c r="N3" s="12">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" cm="1">
-        <f t="array" ref="A4">IF(C4="P",SUMPRODUCT(--(D$3:D$100&gt;D4),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A4">IF(C4="P",SUMPRODUCT(--(D$3:D$103&gt;D4),--(C$3:C$103="P"))+1,"")</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>76.8</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
-        <v>51.099999999999994</v>
+        <v>51.7</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>25.7</v>
+        <v>26.7</v>
       </c>
       <c r="G4" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>25.6</v>
+      </c>
+      <c r="I4" s="11">
+        <v>24.7</v>
+      </c>
+      <c r="J4" s="12">
+        <v>23.9</v>
+      </c>
+      <c r="K4" s="10">
+        <v>25.8</v>
+      </c>
+      <c r="L4" s="11">
         <v>25.9</v>
       </c>
-      <c r="H4" s="11">
-        <v>25.2</v>
-      </c>
-      <c r="I4" s="11">
-        <v>25.7</v>
-      </c>
-      <c r="J4" s="12">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="11">
+        <v>26.7</v>
+      </c>
+      <c r="N4" s="12">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" cm="1">
-        <f t="array" ref="A5">IF(C5="P",SUMPRODUCT(--(D$3:D$100&gt;D5),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A5">IF(C5="P",SUMPRODUCT(--(D$3:D$103&gt;D5),--(C$3:C$103="P"))+1,"")</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>74.2</v>
+        <v>77.7</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
-        <v>48.7</v>
+        <v>51.7</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="G5" s="10">
-        <v>24.5</v>
+        <v>25.06</v>
       </c>
       <c r="H5" s="11">
-        <v>24.2</v>
+        <v>23.2</v>
       </c>
       <c r="I5" s="11">
         <v>25.5</v>
       </c>
       <c r="J5" s="12">
-        <v>25</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
+        <v>24.6</v>
+      </c>
+      <c r="K5" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="L5" s="11">
+        <v>25.1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>26</v>
+      </c>
+      <c r="N5" s="12">
+        <v>23.9</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" cm="1">
-        <f t="array" ref="A6">IF(C6="P",SUMPRODUCT(--(D$3:D$100&gt;D6),--(C$3:C$100="P"))+1,"")</f>
-        <v>4</v>
+      <c r="A6" t="str" cm="1">
+        <f t="array" ref="A6">IF(C6="P",SUMPRODUCT(--(D$3:D$103&gt;D6),--(C$3:C$103="P"))+1,"")</f>
+        <v/>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>73.8</v>
+        <v>76.899999999999991</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
-        <v>49.1</v>
+        <v>51.099999999999994</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>24.7</v>
+        <v>25.8</v>
       </c>
       <c r="G6" s="10">
-        <v>23.5</v>
+        <v>25.9</v>
       </c>
       <c r="H6" s="11">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="I6" s="11">
-        <v>24.7</v>
+        <v>25.7</v>
       </c>
       <c r="J6" s="12">
-        <v>23.9</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K6" s="10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L6" s="11">
+        <v>25.8</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" cm="1">
-        <f t="array" ref="A7">IF(C7="P",SUMPRODUCT(--(D$3:D$100&gt;D7),--(C$3:C$100="P"))+1,"")</f>
-        <v>5</v>
+        <f t="array" ref="A7">IF(C7="P",SUMPRODUCT(--(D$3:D$103&gt;D7),--(C$3:C$103="P"))+1,"")</f>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>73.759999999999991</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
-        <v>48.26</v>
+        <v>49.5</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="G7" s="10">
-        <v>25.06</v>
+        <v>23.9</v>
       </c>
       <c r="H7" s="11">
-        <v>23.2</v>
-      </c>
-      <c r="I7" s="11">
-        <v>25.5</v>
-      </c>
-      <c r="J7" s="12">
+        <v>15.2</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10">
         <v>24.6</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
+      <c r="L7" s="11">
+        <v>24.9</v>
+      </c>
+      <c r="M7" s="11">
+        <v>26.1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>25.2</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" cm="1">
-        <f t="array" ref="A8">IF(C8="P",SUMPRODUCT(--(D$3:D$100&gt;D8),--(C$3:C$100="P"))+1,"")</f>
-        <v>6</v>
+        <f t="array" ref="A8">IF(C8="P",SUMPRODUCT(--(D$3:D$103&gt;D8),--(C$3:C$103="P"))+1,"")</f>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>72.699999999999989</v>
+        <v>74.2</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>48.099999999999994</v>
+        <v>48.7</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>24.6</v>
+        <v>25.5</v>
       </c>
       <c r="G8" s="10">
-        <v>23.7</v>
+        <v>24.5</v>
       </c>
       <c r="H8" s="11">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="I8" s="11">
-        <v>24.4</v>
+        <v>25.5</v>
       </c>
       <c r="J8" s="12">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
@@ -1097,25 +1152,27 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="str" cm="1">
-        <f t="array" ref="A9">IF(C9="P",SUMPRODUCT(--(D$3:D$100&gt;D9),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+      <c r="A9" cm="1">
+        <f t="array" ref="A9">IF(C9="P",SUMPRODUCT(--(D$3:D$103&gt;D9),--(C$3:C$103="P"))+1,"")</f>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>72.099999999999994</v>
+        <v>73.7</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="G9" s="10">
         <v>24.2</v>
@@ -1129,474 +1186,608 @@
       <c r="J9" s="12">
         <v>15</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
+      <c r="K9" s="10">
+        <v>24.9</v>
+      </c>
+      <c r="L9" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" cm="1">
-        <f t="array" ref="A10">IF(C10="P",SUMPRODUCT(--(D$3:D$100&gt;D10),--(C$3:C$100="P"))+1,"")</f>
-        <v>7</v>
+      <c r="A10" t="str" cm="1">
+        <f t="array" ref="A10">IF(C10="P",SUMPRODUCT(--(D$3:D$103&gt;D10),--(C$3:C$103="P"))+1,"")</f>
+        <v/>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>71.7</v>
+        <v>73.7</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>47.2</v>
+        <v>49</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
+        <v>24.7</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
         <v>24.5</v>
       </c>
-      <c r="G10" s="10">
-        <v>23.4</v>
-      </c>
-      <c r="H10" s="11">
-        <v>23.8</v>
-      </c>
-      <c r="I10" s="11">
-        <v>24.3</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10">
+        <v>24.4</v>
+      </c>
+      <c r="L10" s="11">
+        <v>24.6</v>
+      </c>
+      <c r="M10" s="11">
+        <v>24.7</v>
+      </c>
+      <c r="N10" s="12">
         <v>24.5</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="str" cm="1">
-        <f t="array" ref="A11">IF(C11="P",SUMPRODUCT(--(D$3:D$100&gt;D11),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A11">IF(C11="P",SUMPRODUCT(--(D$3:D$103&gt;D11),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>69.099999999999994</v>
+        <v>73.3</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>49.4</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>20.6</v>
+        <v>23.9</v>
       </c>
       <c r="G11" s="10">
+        <v>25</v>
+      </c>
+      <c r="H11" s="11">
         <v>24.4</v>
       </c>
-      <c r="H11" s="11">
-        <v>24.1</v>
-      </c>
       <c r="I11" s="11">
-        <v>20.6</v>
+        <v>17.8</v>
       </c>
       <c r="J11" s="12">
-        <v>17.8</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="K11" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L11" s="11">
+        <v>23.9</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="str" cm="1">
-        <f t="array" ref="A12">IF(C12="P",SUMPRODUCT(--(D$3:D$100&gt;D12),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+      <c r="A12" cm="1">
+        <f t="array" ref="A12">IF(C12="P",SUMPRODUCT(--(D$3:D$103&gt;D12),--(C$3:C$103="P"))+1,"")</f>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>67.2</v>
+        <v>73.3</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
-        <v>49.4</v>
+        <v>48.5</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>17.8</v>
-      </c>
-      <c r="G12" s="10">
-        <v>25</v>
-      </c>
-      <c r="H12" s="11">
-        <v>24.4</v>
-      </c>
-      <c r="I12" s="11">
-        <v>17.8</v>
-      </c>
-      <c r="J12" s="12">
-        <v>17.5</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
+        <v>24.8</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10">
+        <v>24.7</v>
+      </c>
+      <c r="L12" s="11">
+        <v>23.8</v>
+      </c>
+      <c r="M12" s="11">
+        <v>24.8</v>
+      </c>
+      <c r="N12" s="12">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="str" cm="1">
-        <f t="array" ref="A13">IF(C13="P",SUMPRODUCT(--(D$3:D$100&gt;D13),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+      <c r="A13" cm="1">
+        <f t="array" ref="A13">IF(C13="P",SUMPRODUCT(--(D$3:D$103&gt;D13),--(C$3:C$103="P"))+1,"")</f>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>47.2</v>
+        <v>72.699999999999989</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
-        <v>47.2</v>
+        <v>48.099999999999994</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="G13" s="10">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="H13" s="11">
-        <v>23.4</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
+        <v>24.4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>24.4</v>
+      </c>
+      <c r="J13" s="12">
+        <v>24.6</v>
+      </c>
+      <c r="K13" s="10">
+        <v>22.9</v>
+      </c>
+      <c r="L13" s="11">
+        <v>24.6</v>
+      </c>
+      <c r="M13" s="11">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N13" s="12">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="str" cm="1">
-        <f t="array" ref="A14">IF(C14="P",SUMPRODUCT(--(D$3:D$100&gt;D14),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A14">IF(C14="P",SUMPRODUCT(--(D$3:D$103&gt;D14),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>46.4</v>
+        <v>71.7</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
-        <v>46.4</v>
+        <v>47.2</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="G14" s="10">
-        <v>22.2</v>
+        <v>23.4</v>
       </c>
       <c r="H14" s="11">
-        <v>24.2</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
+        <v>23.8</v>
+      </c>
+      <c r="I14" s="11">
+        <v>24.3</v>
+      </c>
+      <c r="J14" s="12">
+        <v>24.5</v>
+      </c>
+      <c r="K14" s="10">
+        <v>22.8</v>
+      </c>
+      <c r="L14" s="11">
+        <v>19.5</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="str" cm="1">
-        <f t="array" ref="A15">IF(C15="P",SUMPRODUCT(--(D$3:D$100&gt;D15),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A15">IF(C15="P",SUMPRODUCT(--(D$3:D$103&gt;D15),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>41.5</v>
+        <v>71.2</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
-        <v>41.5</v>
+        <v>47.2</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G15" s="10">
-        <v>17.8</v>
+        <v>23.8</v>
       </c>
       <c r="H15" s="11">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
+      <c r="K15" s="10">
+        <v>23.1</v>
+      </c>
+      <c r="L15" s="11">
+        <v>23.7</v>
+      </c>
+      <c r="M15" s="11">
+        <v>23.6</v>
+      </c>
+      <c r="N15" s="12">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="str" cm="1">
-        <f t="array" ref="A16">IF(C16="P",SUMPRODUCT(--(D$3:D$100&gt;D16),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A16">IF(C16="P",SUMPRODUCT(--(D$3:D$103&gt;D16),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>46.599999999999994</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H16" s="11">
-        <v>23.4</v>
-      </c>
+        <v>23.5</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
+      <c r="K16" s="10">
+        <v>22.9</v>
+      </c>
+      <c r="L16" s="11">
+        <v>23.7</v>
+      </c>
+      <c r="M16" s="11">
+        <v>23.5</v>
+      </c>
+      <c r="N16" s="12">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="str" cm="1">
-        <f t="array" ref="A17">IF(C17="P",SUMPRODUCT(--(D$3:D$100&gt;D17),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A17">IF(C17="P",SUMPRODUCT(--(D$3:D$103&gt;D17),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>39.099999999999994</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
-        <v>39.099999999999994</v>
+        <v>46.4</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G17" s="10">
-        <v>23.9</v>
+        <v>22.2</v>
       </c>
       <c r="H17" s="11">
-        <v>15.2</v>
+        <v>24.2</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
+      <c r="K17" s="10">
+        <v>23</v>
+      </c>
+      <c r="L17" s="11">
+        <v>20.5</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="str" cm="1">
-        <f t="array" ref="A18">IF(C18="P",SUMPRODUCT(--(D$3:D$100&gt;D18),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A18">IF(C18="P",SUMPRODUCT(--(D$3:D$103&gt;D18),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>32.799999999999997</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
-        <v>32.799999999999997</v>
+        <v>48.5</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="G18" s="10">
+        <v>24.4</v>
+      </c>
+      <c r="H18" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="J18" s="12">
+        <v>17.8</v>
+      </c>
+      <c r="K18" s="10">
         <v>17.600000000000001</v>
       </c>
-      <c r="H18" s="11">
-        <v>15.2</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
+      <c r="L18" s="11">
+        <v>15.3</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="str" cm="1">
-        <f t="array" ref="A19">IF(C19="P",SUMPRODUCT(--(D$3:D$100&gt;D19),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A19">IF(C19="P",SUMPRODUCT(--(D$3:D$103&gt;D19),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>61.7</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
-        <v>24.5</v>
+        <v>44.1</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G19" s="10">
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H19" s="11">
-        <v>24.5</v>
+        <v>15.2</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
+      <c r="K19" s="10">
+        <v>22</v>
+      </c>
+      <c r="L19" s="11">
+        <v>22.1</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="str" cm="1">
-        <f t="array" ref="A20">IF(C20="P",SUMPRODUCT(--(D$3:D$100&gt;D20),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A20">IF(C20="P",SUMPRODUCT(--(D$3:D$103&gt;D20),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>60.2</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>41</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="G20" s="10">
-        <v>20.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H20" s="11">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
+      <c r="K20" s="10">
+        <v>19.2</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="str" cm="1">
-        <f t="array" ref="A21">IF(C21="P",SUMPRODUCT(--(D$3:D$100&gt;D21),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+        <f t="array" ref="A21">IF(C21="P",SUMPRODUCT(--(D$3:D$103&gt;D21),--(C$3:C$103="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="3"/>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>44.4</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="1"/>
+        <v>44.4</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="10">
+        <v>23.4</v>
+      </c>
+      <c r="L21" s="11">
+        <v>21</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="str" cm="1">
-        <f t="array" ref="A22">IF(C22="P",SUMPRODUCT(--(D$3:D$100&gt;D22),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+        <f t="array" ref="A22">IF(C22="P",SUMPRODUCT(--(D$3:D$103&gt;D22),--(C$3:C$103="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="3"/>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>44.2</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L22" s="11">
+        <v>23.8</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="str" cm="1">
-        <f t="array" ref="A23">IF(C23="P",SUMPRODUCT(--(D$3:D$100&gt;D23),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+        <f t="array" ref="A23">IF(C23="P",SUMPRODUCT(--(D$3:D$103&gt;D23),--(C$3:C$103="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="3"/>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="1"/>
+        <v>41.5</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>17.8</v>
+      </c>
+      <c r="H23" s="11">
+        <v>23.7</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="str" cm="1">
-        <f t="array" ref="A24">IF(C24="P",SUMPRODUCT(--(D$3:D$100&gt;D24),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+        <f t="array" ref="A24">IF(C24="P",SUMPRODUCT(--(D$3:D$103&gt;D24),--(C$3:C$103="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="3"/>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>20.5</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="str" cm="1">
-        <f t="array" ref="A25">IF(C25="P",SUMPRODUCT(--(D$3:D$100&gt;D25),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A25">IF(C25="P",SUMPRODUCT(--(D$3:D$103&gt;D25),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C25" s="9"/>
@@ -1614,7 +1805,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="str" cm="1">
-        <f t="array" ref="A26">IF(C26="P",SUMPRODUCT(--(D$3:D$100&gt;D26),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A26">IF(C26="P",SUMPRODUCT(--(D$3:D$103&gt;D26),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C26" s="9"/>
@@ -1632,7 +1823,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="str" cm="1">
-        <f t="array" ref="A27">IF(C27="P",SUMPRODUCT(--(D$3:D$100&gt;D27),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A27">IF(C27="P",SUMPRODUCT(--(D$3:D$103&gt;D27),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C27" s="9"/>
@@ -1650,7 +1841,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="str" cm="1">
-        <f t="array" ref="A28">IF(C28="P",SUMPRODUCT(--(D$3:D$100&gt;D28),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A28">IF(C28="P",SUMPRODUCT(--(D$3:D$103&gt;D28),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C28" s="9"/>
@@ -1668,7 +1859,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="str" cm="1">
-        <f t="array" ref="A29">IF(C29="P",SUMPRODUCT(--(D$3:D$100&gt;D29),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A29">IF(C29="P",SUMPRODUCT(--(D$3:D$103&gt;D29),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C29" s="9"/>
@@ -1686,7 +1877,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="str" cm="1">
-        <f t="array" ref="A30">IF(C30="P",SUMPRODUCT(--(D$3:D$100&gt;D30),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A30">IF(C30="P",SUMPRODUCT(--(D$3:D$103&gt;D30),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C30" s="9"/>
@@ -1704,7 +1895,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="str" cm="1">
-        <f t="array" ref="A31">IF(C31="P",SUMPRODUCT(--(D$3:D$100&gt;D31),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A31">IF(C31="P",SUMPRODUCT(--(D$3:D$103&gt;D31),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C31" s="9"/>
@@ -1722,7 +1913,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="str" cm="1">
-        <f t="array" ref="A32">IF(C32="P",SUMPRODUCT(--(D$3:D$100&gt;D32),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A32">IF(C32="P",SUMPRODUCT(--(D$3:D$103&gt;D32),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C32" s="9"/>
@@ -1740,7 +1931,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="str" cm="1">
-        <f t="array" ref="A33">IF(C33="P",SUMPRODUCT(--(D$3:D$100&gt;D33),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A33">IF(C33="P",SUMPRODUCT(--(D$3:D$103&gt;D33),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C33" s="9"/>
@@ -1758,7 +1949,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="str" cm="1">
-        <f t="array" ref="A34">IF(C34="P",SUMPRODUCT(--(D$3:D$100&gt;D34),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A34">IF(C34="P",SUMPRODUCT(--(D$3:D$103&gt;D34),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C34" s="9"/>
@@ -1776,7 +1967,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="str" cm="1">
-        <f t="array" ref="A35">IF(C35="P",SUMPRODUCT(--(D$3:D$100&gt;D35),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A35">IF(C35="P",SUMPRODUCT(--(D$3:D$103&gt;D35),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C35" s="9"/>
@@ -1794,7 +1985,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="str" cm="1">
-        <f t="array" ref="A36">IF(C36="P",SUMPRODUCT(--(D$3:D$100&gt;D36),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A36">IF(C36="P",SUMPRODUCT(--(D$3:D$103&gt;D36),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C36" s="9"/>
@@ -1812,7 +2003,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="str" cm="1">
-        <f t="array" ref="A37">IF(C37="P",SUMPRODUCT(--(D$3:D$100&gt;D37),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A37">IF(C37="P",SUMPRODUCT(--(D$3:D$103&gt;D37),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C37" s="9"/>
@@ -1830,7 +2021,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="str" cm="1">
-        <f t="array" ref="A38">IF(C38="P",SUMPRODUCT(--(D$3:D$100&gt;D38),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A38">IF(C38="P",SUMPRODUCT(--(D$3:D$103&gt;D38),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C38" s="9"/>
@@ -1848,7 +2039,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="str" cm="1">
-        <f t="array" ref="A39">IF(C39="P",SUMPRODUCT(--(D$3:D$100&gt;D39),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A39">IF(C39="P",SUMPRODUCT(--(D$3:D$103&gt;D39),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C39" s="9"/>
@@ -1866,7 +2057,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="str" cm="1">
-        <f t="array" ref="A40">IF(C40="P",SUMPRODUCT(--(D$3:D$100&gt;D40),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A40">IF(C40="P",SUMPRODUCT(--(D$3:D$103&gt;D40),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C40" s="9"/>
@@ -1884,7 +2075,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="str" cm="1">
-        <f t="array" ref="A41">IF(C41="P",SUMPRODUCT(--(D$3:D$100&gt;D41),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A41">IF(C41="P",SUMPRODUCT(--(D$3:D$103&gt;D41),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C41" s="9"/>
@@ -1902,7 +2093,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="str" cm="1">
-        <f t="array" ref="A42">IF(C42="P",SUMPRODUCT(--(D$3:D$100&gt;D42),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A42">IF(C42="P",SUMPRODUCT(--(D$3:D$103&gt;D42),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C42" s="9"/>
@@ -1920,7 +2111,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="str" cm="1">
-        <f t="array" ref="A43">IF(C43="P",SUMPRODUCT(--(D$3:D$100&gt;D43),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A43">IF(C43="P",SUMPRODUCT(--(D$3:D$103&gt;D43),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C43" s="9"/>
@@ -1938,7 +2129,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="str" cm="1">
-        <f t="array" ref="A44">IF(C44="P",SUMPRODUCT(--(D$3:D$100&gt;D44),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A44">IF(C44="P",SUMPRODUCT(--(D$3:D$103&gt;D44),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C44" s="9"/>
@@ -1956,7 +2147,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="str" cm="1">
-        <f t="array" ref="A45">IF(C45="P",SUMPRODUCT(--(D$3:D$100&gt;D45),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A45">IF(C45="P",SUMPRODUCT(--(D$3:D$103&gt;D45),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C45" s="9"/>
@@ -1974,7 +2165,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="str" cm="1">
-        <f t="array" ref="A46">IF(C46="P",SUMPRODUCT(--(D$3:D$100&gt;D46),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A46">IF(C46="P",SUMPRODUCT(--(D$3:D$103&gt;D46),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C46" s="9"/>
@@ -1992,7 +2183,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="str" cm="1">
-        <f t="array" ref="A47">IF(C47="P",SUMPRODUCT(--(D$3:D$100&gt;D47),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A47">IF(C47="P",SUMPRODUCT(--(D$3:D$103&gt;D47),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C47" s="9"/>
@@ -2010,7 +2201,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="str" cm="1">
-        <f t="array" ref="A48">IF(C48="P",SUMPRODUCT(--(D$3:D$100&gt;D48),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A48">IF(C48="P",SUMPRODUCT(--(D$3:D$103&gt;D48),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C48" s="9"/>
@@ -2028,7 +2219,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="str" cm="1">
-        <f t="array" ref="A49">IF(C49="P",SUMPRODUCT(--(D$3:D$100&gt;D49),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A49">IF(C49="P",SUMPRODUCT(--(D$3:D$103&gt;D49),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C49" s="9"/>
@@ -2046,7 +2237,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="str" cm="1">
-        <f t="array" ref="A50">IF(C50="P",SUMPRODUCT(--(D$3:D$100&gt;D50),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A50">IF(C50="P",SUMPRODUCT(--(D$3:D$103&gt;D50),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C50" s="9"/>
@@ -2064,7 +2255,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="str" cm="1">
-        <f t="array" ref="A51">IF(C51="P",SUMPRODUCT(--(D$3:D$100&gt;D51),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A51">IF(C51="P",SUMPRODUCT(--(D$3:D$103&gt;D51),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C51" s="9"/>
@@ -2082,7 +2273,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="str" cm="1">
-        <f t="array" ref="A52">IF(C52="P",SUMPRODUCT(--(D$3:D$100&gt;D52),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A52">IF(C52="P",SUMPRODUCT(--(D$3:D$103&gt;D52),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C52" s="9"/>
@@ -2100,7 +2291,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="str" cm="1">
-        <f t="array" ref="A53">IF(C53="P",SUMPRODUCT(--(D$3:D$100&gt;D53),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A53">IF(C53="P",SUMPRODUCT(--(D$3:D$103&gt;D53),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C53" s="9"/>
@@ -2118,7 +2309,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="str" cm="1">
-        <f t="array" ref="A54">IF(C54="P",SUMPRODUCT(--(D$3:D$100&gt;D54),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A54">IF(C54="P",SUMPRODUCT(--(D$3:D$103&gt;D54),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C54" s="9"/>
@@ -2136,7 +2327,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="str" cm="1">
-        <f t="array" ref="A55">IF(C55="P",SUMPRODUCT(--(D$3:D$100&gt;D55),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A55">IF(C55="P",SUMPRODUCT(--(D$3:D$103&gt;D55),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C55" s="9"/>
@@ -2154,7 +2345,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="str" cm="1">
-        <f t="array" ref="A56">IF(C56="P",SUMPRODUCT(--(D$3:D$100&gt;D56),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A56">IF(C56="P",SUMPRODUCT(--(D$3:D$103&gt;D56),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C56" s="9"/>
@@ -2172,7 +2363,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="str" cm="1">
-        <f t="array" ref="A57">IF(C57="P",SUMPRODUCT(--(D$3:D$100&gt;D57),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A57">IF(C57="P",SUMPRODUCT(--(D$3:D$103&gt;D57),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C57" s="9"/>
@@ -2190,7 +2381,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="str" cm="1">
-        <f t="array" ref="A58">IF(C58="P",SUMPRODUCT(--(D$3:D$100&gt;D58),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A58">IF(C58="P",SUMPRODUCT(--(D$3:D$103&gt;D58),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C58" s="9"/>
@@ -2208,7 +2399,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="str" cm="1">
-        <f t="array" ref="A59">IF(C59="P",SUMPRODUCT(--(D$3:D$100&gt;D59),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A59">IF(C59="P",SUMPRODUCT(--(D$3:D$103&gt;D59),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C59" s="9"/>
@@ -2226,7 +2417,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="str" cm="1">
-        <f t="array" ref="A60">IF(C60="P",SUMPRODUCT(--(D$3:D$100&gt;D60),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A60">IF(C60="P",SUMPRODUCT(--(D$3:D$103&gt;D60),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C60" s="9"/>
@@ -2244,7 +2435,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="str" cm="1">
-        <f t="array" ref="A61">IF(C61="P",SUMPRODUCT(--(D$3:D$100&gt;D61),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A61">IF(C61="P",SUMPRODUCT(--(D$3:D$103&gt;D61),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C61" s="9"/>
@@ -2262,7 +2453,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="str" cm="1">
-        <f t="array" ref="A62">IF(C62="P",SUMPRODUCT(--(D$3:D$100&gt;D62),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A62">IF(C62="P",SUMPRODUCT(--(D$3:D$103&gt;D62),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C62" s="9"/>
@@ -2280,7 +2471,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="str" cm="1">
-        <f t="array" ref="A63">IF(C63="P",SUMPRODUCT(--(D$3:D$100&gt;D63),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A63">IF(C63="P",SUMPRODUCT(--(D$3:D$103&gt;D63),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C63" s="9"/>
@@ -2298,7 +2489,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="str" cm="1">
-        <f t="array" ref="A64">IF(C64="P",SUMPRODUCT(--(D$3:D$100&gt;D64),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A64">IF(C64="P",SUMPRODUCT(--(D$3:D$103&gt;D64),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C64" s="9"/>
@@ -2316,7 +2507,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="str" cm="1">
-        <f t="array" ref="A65">IF(C65="P",SUMPRODUCT(--(D$3:D$100&gt;D65),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A65">IF(C65="P",SUMPRODUCT(--(D$3:D$103&gt;D65),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C65" s="9"/>
@@ -2334,7 +2525,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="str" cm="1">
-        <f t="array" ref="A66">IF(C66="P",SUMPRODUCT(--(D$3:D$100&gt;D66),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A66">IF(C66="P",SUMPRODUCT(--(D$3:D$103&gt;D66),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C66" s="9"/>
@@ -2352,7 +2543,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="str" cm="1">
-        <f t="array" ref="A67">IF(C67="P",SUMPRODUCT(--(D$3:D$100&gt;D67),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A67">IF(C67="P",SUMPRODUCT(--(D$3:D$103&gt;D67),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C67" s="9"/>
@@ -2370,7 +2561,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="str" cm="1">
-        <f t="array" ref="A68">IF(C68="P",SUMPRODUCT(--(D$3:D$100&gt;D68),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A68">IF(C68="P",SUMPRODUCT(--(D$3:D$103&gt;D68),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C68" s="9"/>
@@ -2388,7 +2579,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="str" cm="1">
-        <f t="array" ref="A69">IF(C69="P",SUMPRODUCT(--(D$3:D$100&gt;D69),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A69">IF(C69="P",SUMPRODUCT(--(D$3:D$103&gt;D69),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C69" s="9"/>
@@ -2406,7 +2597,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="str" cm="1">
-        <f t="array" ref="A70">IF(C70="P",SUMPRODUCT(--(D$3:D$100&gt;D70),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A70">IF(C70="P",SUMPRODUCT(--(D$3:D$103&gt;D70),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C70" s="9"/>
@@ -2424,7 +2615,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="str" cm="1">
-        <f t="array" ref="A71">IF(C71="P",SUMPRODUCT(--(D$3:D$100&gt;D71),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A71">IF(C71="P",SUMPRODUCT(--(D$3:D$103&gt;D71),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C71" s="9"/>
@@ -2442,7 +2633,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="str" cm="1">
-        <f t="array" ref="A72">IF(C72="P",SUMPRODUCT(--(D$3:D$100&gt;D72),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A72">IF(C72="P",SUMPRODUCT(--(D$3:D$103&gt;D72),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C72" s="9"/>
@@ -2460,7 +2651,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="str" cm="1">
-        <f t="array" ref="A73">IF(C73="P",SUMPRODUCT(--(D$3:D$100&gt;D73),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A73">IF(C73="P",SUMPRODUCT(--(D$3:D$103&gt;D73),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C73" s="9"/>
@@ -2478,7 +2669,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="str" cm="1">
-        <f t="array" ref="A74">IF(C74="P",SUMPRODUCT(--(D$3:D$100&gt;D74),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A74">IF(C74="P",SUMPRODUCT(--(D$3:D$103&gt;D74),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C74" s="9"/>
@@ -2496,7 +2687,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="str" cm="1">
-        <f t="array" ref="A75">IF(C75="P",SUMPRODUCT(--(D$3:D$100&gt;D75),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A75">IF(C75="P",SUMPRODUCT(--(D$3:D$103&gt;D75),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C75" s="9"/>
@@ -2514,7 +2705,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="str" cm="1">
-        <f t="array" ref="A76">IF(C76="P",SUMPRODUCT(--(D$3:D$100&gt;D76),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A76">IF(C76="P",SUMPRODUCT(--(D$3:D$103&gt;D76),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C76" s="9"/>
@@ -2532,7 +2723,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="str" cm="1">
-        <f t="array" ref="A77">IF(C77="P",SUMPRODUCT(--(D$3:D$100&gt;D77),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A77">IF(C77="P",SUMPRODUCT(--(D$3:D$103&gt;D77),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C77" s="9"/>
@@ -2550,7 +2741,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="str" cm="1">
-        <f t="array" ref="A78">IF(C78="P",SUMPRODUCT(--(D$3:D$100&gt;D78),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A78">IF(C78="P",SUMPRODUCT(--(D$3:D$103&gt;D78),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C78" s="9"/>
@@ -2568,7 +2759,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="str" cm="1">
-        <f t="array" ref="A79">IF(C79="P",SUMPRODUCT(--(D$3:D$100&gt;D79),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A79">IF(C79="P",SUMPRODUCT(--(D$3:D$103&gt;D79),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C79" s="9"/>
@@ -2586,7 +2777,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="str" cm="1">
-        <f t="array" ref="A80">IF(C80="P",SUMPRODUCT(--(D$3:D$100&gt;D80),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A80">IF(C80="P",SUMPRODUCT(--(D$3:D$103&gt;D80),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C80" s="9"/>
@@ -2604,7 +2795,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="str" cm="1">
-        <f t="array" ref="A81">IF(C81="P",SUMPRODUCT(--(D$3:D$100&gt;D81),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A81">IF(C81="P",SUMPRODUCT(--(D$3:D$103&gt;D81),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C81" s="9"/>
@@ -2622,7 +2813,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="str" cm="1">
-        <f t="array" ref="A82">IF(C82="P",SUMPRODUCT(--(D$3:D$100&gt;D82),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A82">IF(C82="P",SUMPRODUCT(--(D$3:D$103&gt;D82),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C82" s="9"/>
@@ -2640,7 +2831,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="str" cm="1">
-        <f t="array" ref="A83">IF(C83="P",SUMPRODUCT(--(D$3:D$100&gt;D83),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A83">IF(C83="P",SUMPRODUCT(--(D$3:D$103&gt;D83),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C83" s="9"/>
@@ -2658,7 +2849,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="str" cm="1">
-        <f t="array" ref="A84">IF(C84="P",SUMPRODUCT(--(D$3:D$100&gt;D84),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A84">IF(C84="P",SUMPRODUCT(--(D$3:D$103&gt;D84),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C84" s="9"/>
@@ -2676,7 +2867,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="str" cm="1">
-        <f t="array" ref="A85">IF(C85="P",SUMPRODUCT(--(D$3:D$100&gt;D85),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A85">IF(C85="P",SUMPRODUCT(--(D$3:D$103&gt;D85),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C85" s="9"/>
@@ -2694,7 +2885,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="str" cm="1">
-        <f t="array" ref="A86">IF(C86="P",SUMPRODUCT(--(D$3:D$100&gt;D86),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A86">IF(C86="P",SUMPRODUCT(--(D$3:D$103&gt;D86),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C86" s="9"/>
@@ -2712,7 +2903,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="str" cm="1">
-        <f t="array" ref="A87">IF(C87="P",SUMPRODUCT(--(D$3:D$100&gt;D87),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A87">IF(C87="P",SUMPRODUCT(--(D$3:D$103&gt;D87),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C87" s="9"/>
@@ -2730,7 +2921,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="str" cm="1">
-        <f t="array" ref="A88">IF(C88="P",SUMPRODUCT(--(D$3:D$100&gt;D88),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A88">IF(C88="P",SUMPRODUCT(--(D$3:D$103&gt;D88),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C88" s="9"/>
@@ -2748,7 +2939,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="str" cm="1">
-        <f t="array" ref="A89">IF(C89="P",SUMPRODUCT(--(D$3:D$100&gt;D89),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A89">IF(C89="P",SUMPRODUCT(--(D$3:D$103&gt;D89),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C89" s="9"/>
@@ -2766,7 +2957,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="str" cm="1">
-        <f t="array" ref="A90">IF(C90="P",SUMPRODUCT(--(D$3:D$100&gt;D90),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A90">IF(C90="P",SUMPRODUCT(--(D$3:D$103&gt;D90),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C90" s="9"/>
@@ -2784,7 +2975,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="str" cm="1">
-        <f t="array" ref="A91">IF(C91="P",SUMPRODUCT(--(D$3:D$100&gt;D91),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A91">IF(C91="P",SUMPRODUCT(--(D$3:D$103&gt;D91),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C91" s="9"/>
@@ -2802,7 +2993,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="str" cm="1">
-        <f t="array" ref="A92">IF(C92="P",SUMPRODUCT(--(D$3:D$100&gt;D92),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A92">IF(C92="P",SUMPRODUCT(--(D$3:D$103&gt;D92),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C92" s="9"/>
@@ -2820,7 +3011,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="str" cm="1">
-        <f t="array" ref="A93">IF(C93="P",SUMPRODUCT(--(D$3:D$100&gt;D93),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A93">IF(C93="P",SUMPRODUCT(--(D$3:D$103&gt;D93),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C93" s="9"/>
@@ -2838,7 +3029,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="str" cm="1">
-        <f t="array" ref="A94">IF(C94="P",SUMPRODUCT(--(D$3:D$100&gt;D94),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A94">IF(C94="P",SUMPRODUCT(--(D$3:D$103&gt;D94),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C94" s="9"/>
@@ -2856,7 +3047,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="str" cm="1">
-        <f t="array" ref="A95">IF(C95="P",SUMPRODUCT(--(D$3:D$100&gt;D95),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A95">IF(C95="P",SUMPRODUCT(--(D$3:D$103&gt;D95),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C95" s="9"/>
@@ -2874,7 +3065,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="str" cm="1">
-        <f t="array" ref="A96">IF(C96="P",SUMPRODUCT(--(D$3:D$100&gt;D96),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A96">IF(C96="P",SUMPRODUCT(--(D$3:D$103&gt;D96),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C96" s="9"/>
@@ -2892,7 +3083,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="str" cm="1">
-        <f t="array" ref="A97">IF(C97="P",SUMPRODUCT(--(D$3:D$100&gt;D97),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A97">IF(C97="P",SUMPRODUCT(--(D$3:D$103&gt;D97),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C97" s="9"/>
@@ -2910,7 +3101,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="str" cm="1">
-        <f t="array" ref="A98">IF(C98="P",SUMPRODUCT(--(D$3:D$100&gt;D98),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A98">IF(C98="P",SUMPRODUCT(--(D$3:D$103&gt;D98),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C98" s="9"/>
@@ -2928,7 +3119,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="str" cm="1">
-        <f t="array" ref="A99">IF(C99="P",SUMPRODUCT(--(D$3:D$100&gt;D99),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A99">IF(C99="P",SUMPRODUCT(--(D$3:D$103&gt;D99),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C99" s="9"/>
@@ -2946,7 +3137,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="str" cm="1">
-        <f t="array" ref="A100">IF(C100="P",SUMPRODUCT(--(D$3:D$100&gt;D100),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A100">IF(C100="P",SUMPRODUCT(--(D$3:D$103&gt;D100),--(C$3:C$103="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C100" s="9"/>
@@ -2962,6 +3153,60 @@
       <c r="M100" s="1"/>
       <c r="N100" s="3"/>
     </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" t="str" cm="1">
+        <f t="array" ref="A101">IF(C101="P",SUMPRODUCT(--(D$3:D$103&gt;D101),--(C$3:C$103="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" t="str" cm="1">
+        <f t="array" ref="A102">IF(C102="P",SUMPRODUCT(--(D$3:D$103&gt;D102),--(C$3:C$103="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" t="str" cm="1">
+        <f t="array" ref="A103">IF(C103="P",SUMPRODUCT(--(D$3:D$103&gt;D103),--(C$3:C$103="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N2" xr:uid="{05718F54-B297-D34C-A083-EC279B954987}">
     <filterColumn colId="6" showButton="0"/>
@@ -2970,8 +3215,8 @@
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N100">
-      <sortCondition descending="1" ref="D1:D100"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N103">
+      <sortCondition descending="1" ref="D1:D103"/>
     </sortState>
   </autoFilter>
   <mergeCells count="8">
@@ -2990,7 +3235,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C11741-43E2-3A48-A8D1-461E1A33A902}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3008,44 +3253,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="17" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3073,58 +3318,62 @@
     </row>
     <row r="3" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" cm="1">
-        <f t="array" ref="A3">IF(C3="P",SUMPRODUCT(--(D$3:D$100&gt;D3),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A3">IF(C3="P",SUMPRODUCT(--(D$3:D$102&gt;D3),--(C$3:C$102="P"))+1,"")</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="11">
-        <f t="shared" ref="D3:D28" si="0">E3+F3</f>
-        <v>81.2</v>
+        <f t="shared" ref="D3:D30" si="0">E3+F3</f>
+        <v>87</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E28" si="1">MAX(G3+H3,K3+L3)</f>
-        <v>53.6</v>
+        <f t="shared" ref="E3:E30" si="1">MAX(G3+H3,K3+L3)</f>
+        <v>57.4</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F28" si="2">IF(G3+H3=K3+L3,MAX(G3,H3,I3,J3,K3,L3,M3,N3),IF(E3=G3+H3,MAX(I3,J3,K3,L3,M3,N3),MAX(G3,H3,I3,J3,M3,N3)))</f>
-        <v>27.6</v>
+        <f t="shared" ref="F3:F30" si="2">IF(G3+H3=K3+L3,MAX(G3,H3,I3,J3,K3,L3,M3,N3),IF(E3=G3+H3,MAX(I3,J3,K3,L3,M3,N3),MAX(G3,H3,I3,J3,M3,N3)))</f>
+        <v>29.6</v>
       </c>
       <c r="G3" s="10">
-        <v>27.3</v>
+        <v>29.6</v>
       </c>
       <c r="H3" s="11">
-        <v>26.3</v>
-      </c>
-      <c r="I3" s="11">
-        <v>27.6</v>
-      </c>
-      <c r="J3" s="12">
-        <v>27.3</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10">
+        <v>28.2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>29.2</v>
+      </c>
+      <c r="M3" s="11">
+        <v>27.9</v>
+      </c>
+      <c r="N3" s="12">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" cm="1">
-        <f t="array" ref="A4">IF(C4="P",SUMPRODUCT(--(D$3:D$100&gt;D4),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A4">IF(C4="P",SUMPRODUCT(--(D$3:D$102&gt;D4),--(C$3:C$102="P"))+1,"")</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>81.7</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -3132,7 +3381,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="G4" s="10">
         <v>27.4</v>
@@ -3146,564 +3395,664 @@
       <c r="J4" s="12">
         <v>25.7</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
+      <c r="K4" s="10">
+        <v>27.5</v>
+      </c>
+      <c r="L4" s="11">
+        <v>25.9</v>
+      </c>
+      <c r="M4" s="11">
+        <v>26.3</v>
+      </c>
+      <c r="N4" s="12">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" cm="1">
-        <f t="array" ref="A5">IF(C5="P",SUMPRODUCT(--(D$3:D$100&gt;D5),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A5">IF(C5="P",SUMPRODUCT(--(D$3:D$102&gt;D5),--(C$3:C$102="P"))+1,"")</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>80.2</v>
+        <v>81.5</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>54.4</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G5" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>24.7</v>
+      </c>
+      <c r="I5" s="11">
+        <v>24.7</v>
+      </c>
+      <c r="J5" s="12">
+        <v>24.8</v>
+      </c>
+      <c r="K5" s="10">
+        <v>27.4</v>
+      </c>
+      <c r="L5" s="11">
         <v>27</v>
       </c>
-      <c r="H5" s="11">
-        <v>26</v>
-      </c>
-      <c r="I5" s="11">
-        <v>23.3</v>
-      </c>
-      <c r="J5" s="12">
-        <v>27.2</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
+      <c r="M5" s="11">
+        <v>27.1</v>
+      </c>
+      <c r="N5" s="12">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" cm="1">
-        <f t="array" ref="A6">IF(C6="P",SUMPRODUCT(--(D$3:D$100&gt;D6),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A6">IF(C6="P",SUMPRODUCT(--(D$3:D$102&gt;D6),--(C$3:C$102="P"))+1,"")</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>79.900000000000006</v>
+        <v>81.2</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
-        <v>52.6</v>
+        <v>53.6</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
+        <v>27.6</v>
+      </c>
+      <c r="G6" s="10">
         <v>27.3</v>
       </c>
-      <c r="G6" s="10">
-        <v>26.1</v>
-      </c>
       <c r="H6" s="11">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="I6" s="11">
-        <v>26.7</v>
+        <v>27.6</v>
       </c>
       <c r="J6" s="12">
         <v>27.3</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="10">
+        <v>19.7</v>
+      </c>
+      <c r="L6" s="11">
+        <v>25.8</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" cm="1">
-        <f t="array" ref="A7">IF(C7="P",SUMPRODUCT(--(D$3:D$100&gt;D7),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A7">IF(C7="P",SUMPRODUCT(--(D$3:D$102&gt;D7),--(C$3:C$102="P"))+1,"")</f>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>79.099999999999994</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
-        <v>52.7</v>
+        <v>53.3</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
+        <v>27.3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>24.1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10">
+        <v>26.9</v>
+      </c>
+      <c r="L7" s="11">
         <v>26.4</v>
       </c>
-      <c r="G7" s="10">
-        <v>27</v>
-      </c>
-      <c r="H7" s="11">
-        <v>25.7</v>
-      </c>
-      <c r="I7" s="11">
-        <v>26.4</v>
-      </c>
-      <c r="J7" s="12">
-        <v>25.7</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
+      <c r="M7" s="11">
+        <v>27.3</v>
+      </c>
+      <c r="N7" s="12">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="str" cm="1">
-        <f t="array" ref="A8">IF(C8="P",SUMPRODUCT(--(D$3:D$100&gt;D8),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+      <c r="A8" cm="1">
+        <f t="array" ref="A8">IF(C8="P",SUMPRODUCT(--(D$3:D$102&gt;D8),--(C$3:C$102="P"))+1,"")</f>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>77.7</v>
+        <v>80.2</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>51.1</v>
+        <v>53</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="G8" s="10">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="H8" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="11">
-        <v>20.5</v>
+        <v>23.3</v>
       </c>
       <c r="J8" s="12">
-        <v>26.6</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
+        <v>27.2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>25.8</v>
+      </c>
+      <c r="L8" s="11">
+        <v>19</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="str" cm="1">
-        <f t="array" ref="A9">IF(C9="P",SUMPRODUCT(--(D$3:D$100&gt;D9),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+      <c r="A9" cm="1">
+        <f t="array" ref="A9">IF(C9="P",SUMPRODUCT(--(D$3:D$102&gt;D9),--(C$3:C$102="P"))+1,"")</f>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>76.5</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>50.1</v>
+        <v>53.099999999999994</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>26.4</v>
+        <v>27</v>
       </c>
       <c r="G9" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" s="11">
-        <v>25.1</v>
+        <v>25.7</v>
       </c>
       <c r="I9" s="11">
         <v>26.4</v>
       </c>
       <c r="J9" s="12">
-        <v>24.1</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
+        <v>25.7</v>
+      </c>
+      <c r="K9" s="10">
+        <v>27.2</v>
+      </c>
+      <c r="L9" s="11">
+        <v>25.9</v>
+      </c>
+      <c r="M9" s="11">
+        <v>26.3</v>
+      </c>
+      <c r="N9" s="12">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="str" cm="1">
-        <f t="array" ref="A10">IF(C10="P",SUMPRODUCT(--(D$3:D$100&gt;D10),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+      <c r="A10" cm="1">
+        <f t="array" ref="A10">IF(C10="P",SUMPRODUCT(--(D$3:D$102&gt;D10),--(C$3:C$102="P"))+1,"")</f>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>75.7</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>50.9</v>
+        <v>52.6</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>24.8</v>
+        <v>27.3</v>
       </c>
       <c r="G10" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="I10" s="11">
+        <v>26.7</v>
+      </c>
+      <c r="J10" s="12">
+        <v>27.3</v>
+      </c>
+      <c r="K10" s="10">
         <v>26.2</v>
       </c>
-      <c r="H10" s="11">
-        <v>24.7</v>
-      </c>
-      <c r="I10" s="11">
-        <v>24.7</v>
-      </c>
-      <c r="J10" s="12">
-        <v>24.8</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
+      <c r="L10" s="11">
+        <v>24.2</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>25.7</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="str" cm="1">
-        <f t="array" ref="A11">IF(C11="P",SUMPRODUCT(--(D$3:D$100&gt;D11),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A11">IF(C11="P",SUMPRODUCT(--(D$3:D$102&gt;D11),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>75.400000000000006</v>
+        <v>78.199999999999989</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>51.599999999999994</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>25.4</v>
-      </c>
-      <c r="G11" s="10">
-        <v>24.9</v>
-      </c>
-      <c r="H11" s="11">
-        <v>25.1</v>
-      </c>
-      <c r="I11" s="11">
-        <v>25.4</v>
-      </c>
-      <c r="J11" s="12">
-        <v>25.4</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
+        <v>26.6</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10">
+        <v>27.2</v>
+      </c>
+      <c r="L11" s="11">
+        <v>24.4</v>
+      </c>
+      <c r="M11" s="11">
+        <v>22.9</v>
+      </c>
+      <c r="N11" s="12">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="str" cm="1">
-        <f t="array" ref="A12">IF(C12="P",SUMPRODUCT(--(D$3:D$100&gt;D12),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A12">IF(C12="P",SUMPRODUCT(--(D$3:D$102&gt;D12),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>75.099999999999994</v>
+        <v>77.7</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
-        <v>49.2</v>
+        <v>51.1</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="G12" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>25</v>
+      </c>
+      <c r="I12" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="J12" s="12">
+        <v>26.6</v>
+      </c>
+      <c r="K12" s="10">
+        <v>25.3</v>
+      </c>
+      <c r="L12" s="11">
         <v>24.6</v>
       </c>
-      <c r="H12" s="11">
-        <v>24.6</v>
-      </c>
-      <c r="I12" s="11">
-        <v>25.9</v>
-      </c>
-      <c r="J12" s="12">
-        <v>24.2</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="str" cm="1">
-        <f t="array" ref="A13">IF(C13="P",SUMPRODUCT(--(D$3:D$100&gt;D13),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A13">IF(C13="P",SUMPRODUCT(--(D$3:D$102&gt;D13),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>77.7</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="G13" s="10">
-        <v>23.2</v>
+        <v>24.9</v>
       </c>
       <c r="H13" s="11">
-        <v>25.8</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
+        <v>25.1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>25.4</v>
+      </c>
+      <c r="J13" s="12">
+        <v>25.4</v>
+      </c>
+      <c r="K13" s="10">
+        <v>27.7</v>
+      </c>
+      <c r="L13" s="11">
+        <v>18.399999999999999</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" cm="1">
-        <f t="array" ref="A14">IF(C14="P",SUMPRODUCT(--(D$3:D$100&gt;D14),--(C$3:C$100="P"))+1,"")</f>
-        <v>6</v>
+      <c r="A14" t="str" cm="1">
+        <f t="array" ref="A14">IF(C14="P",SUMPRODUCT(--(D$3:D$102&gt;D14),--(C$3:C$102="P"))+1,"")</f>
+        <v/>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>48.2</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
-        <v>48.2</v>
+        <v>51.2</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26.4</v>
       </c>
       <c r="G14" s="10">
-        <v>19.3</v>
+        <v>25</v>
       </c>
       <c r="H14" s="11">
-        <v>28.9</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
+        <v>25.1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>26.4</v>
+      </c>
+      <c r="J14" s="12">
+        <v>24.1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>27.1</v>
+      </c>
+      <c r="L14" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="M14" s="11">
+        <v>18.2</v>
+      </c>
+      <c r="N14" s="12">
+        <v>25.3</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="str" cm="1">
-        <f t="array" ref="A15">IF(C15="P",SUMPRODUCT(--(D$3:D$100&gt;D15),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A15">IF(C15="P",SUMPRODUCT(--(D$3:D$102&gt;D15),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>48.1</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
-        <v>48.1</v>
+        <v>50.6</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>24.6</v>
-      </c>
-      <c r="H15" s="11">
-        <v>23.5</v>
-      </c>
+        <v>25.4</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
+      <c r="K15" s="10">
+        <v>25.6</v>
+      </c>
+      <c r="L15" s="11">
+        <v>25</v>
+      </c>
+      <c r="M15" s="11">
+        <v>25.4</v>
+      </c>
+      <c r="N15" s="12">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="str" cm="1">
-        <f t="array" ref="A16">IF(C16="P",SUMPRODUCT(--(D$3:D$100&gt;D16),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A16">IF(C16="P",SUMPRODUCT(--(D$3:D$102&gt;D16),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>46.8</v>
+        <v>75.3</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
-        <v>46.8</v>
+        <v>50.099999999999994</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="G16" s="10">
-        <v>21.7</v>
+        <v>25.2</v>
       </c>
       <c r="H16" s="11">
-        <v>25.1</v>
+        <v>21.5</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
+      <c r="K16" s="10">
+        <v>25.9</v>
+      </c>
+      <c r="L16" s="11">
+        <v>24.2</v>
+      </c>
+      <c r="M16" s="11">
+        <v>22</v>
+      </c>
+      <c r="N16" s="12">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="str" cm="1">
-        <f t="array" ref="A17">IF(C17="P",SUMPRODUCT(--(D$3:D$100&gt;D17),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A17">IF(C17="P",SUMPRODUCT(--(D$3:D$102&gt;D17),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>46.7</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
-        <v>46.7</v>
+        <v>49.2</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="G17" s="10">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="H17" s="11">
-        <v>22</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
+        <v>24.6</v>
+      </c>
+      <c r="I17" s="11">
+        <v>25.9</v>
+      </c>
+      <c r="J17" s="12">
+        <v>24.2</v>
+      </c>
+      <c r="K17" s="10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L17" s="11">
+        <v>18.2</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="str" cm="1">
-        <f t="array" ref="A18">IF(C18="P",SUMPRODUCT(--(D$3:D$100&gt;D18),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A18">IF(C18="P",SUMPRODUCT(--(D$3:D$102&gt;D18),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>46.7</v>
+        <v>75</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
-        <v>46.7</v>
+        <v>49.9</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.1</v>
       </c>
       <c r="G18" s="10">
-        <v>25.2</v>
+        <v>21.7</v>
       </c>
       <c r="H18" s="11">
-        <v>21.5</v>
+        <v>25.1</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
+      <c r="K18" s="10">
+        <v>25.4</v>
+      </c>
+      <c r="L18" s="11">
+        <v>24.5</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="str" cm="1">
-        <f t="array" ref="A19">IF(C19="P",SUMPRODUCT(--(D$3:D$100&gt;D19),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A19">IF(C19="P",SUMPRODUCT(--(D$3:D$102&gt;D19),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>46.5</v>
+        <v>75</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
-        <v>46.5</v>
+        <v>49</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G19" s="10">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="H19" s="11">
-        <v>23.6</v>
+        <v>25.8</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
+      <c r="K19" s="10">
+        <v>26</v>
+      </c>
+      <c r="L19" s="11">
+        <v>19</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="str" cm="1">
-        <f t="array" ref="A20">IF(C20="P",SUMPRODUCT(--(D$3:D$100&gt;D20),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A20">IF(C20="P",SUMPRODUCT(--(D$3:D$102&gt;D20),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B20" t="s">
@@ -3712,109 +4061,121 @@
       <c r="C20" s="9"/>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>46.4</v>
+        <v>72.8</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
-        <v>46.4</v>
+        <v>48.8</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G20" s="10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H20" s="11">
-        <v>20.399999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
+      <c r="K20" s="10">
+        <v>25.6</v>
+      </c>
+      <c r="L20" s="11">
+        <v>23.2</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="str" cm="1">
-        <f t="array" ref="A21">IF(C21="P",SUMPRODUCT(--(D$3:D$100&gt;D21),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A21">IF(C21="P",SUMPRODUCT(--(D$3:D$102&gt;D21),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>46.2</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
-        <v>46.2</v>
+        <v>48.1</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="G21" s="10">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="H21" s="11">
-        <v>22.2</v>
+        <v>23.5</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
+      <c r="K21" s="10">
+        <v>22.8</v>
+      </c>
+      <c r="L21" s="11">
+        <v>22.1</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="str" cm="1">
-        <f t="array" ref="A22">IF(C22="P",SUMPRODUCT(--(D$3:D$100&gt;D22),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A22">IF(C22="P",SUMPRODUCT(--(D$3:D$102&gt;D22),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>44.3</v>
+        <v>69.800000000000011</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
-        <v>44.3</v>
+        <v>43.7</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
+        <v>26.1</v>
+      </c>
+      <c r="G22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
-        <v>25.9</v>
-      </c>
       <c r="H22" s="11">
-        <v>18.399999999999999</v>
+        <v>26.1</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
+      <c r="K22" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="L22" s="11">
+        <v>25.5</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="str" cm="1">
-        <f t="array" ref="A23">IF(C23="P",SUMPRODUCT(--(D$3:D$100&gt;D23),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A23">IF(C23="P",SUMPRODUCT(--(D$3:D$102&gt;D23),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>43.4</v>
+        <v>68.2</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -3822,7 +4183,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="G23" s="10">
         <v>18.2</v>
@@ -3832,107 +4193,117 @@
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+      <c r="K23" s="10">
+        <v>24.8</v>
+      </c>
+      <c r="L23" s="11">
+        <v>18.399999999999999</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="str" cm="1">
-        <f t="array" ref="A24">IF(C24="P",SUMPRODUCT(--(D$3:D$100&gt;D24),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A24">IF(C24="P",SUMPRODUCT(--(D$3:D$102&gt;D24),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>41.5</v>
+        <v>64.8</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
-        <v>41.5</v>
+        <v>44.3</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="G24" s="10">
-        <v>21.2</v>
+        <v>25.9</v>
       </c>
       <c r="H24" s="11">
-        <v>20.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="K24" s="10">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="L24" s="11">
+        <v>20.5</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" cm="1">
-        <f t="array" ref="A25">IF(C25="P",SUMPRODUCT(--(D$3:D$100&gt;D25),--(C$3:C$100="P"))+1,"")</f>
-        <v>7</v>
+      <c r="A25" t="str" cm="1">
+        <f t="array" ref="A25">IF(C25="P",SUMPRODUCT(--(D$3:D$102&gt;D25),--(C$3:C$102="P"))+1,"")</f>
+        <v/>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>29.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
-        <v>29.6</v>
+        <v>46.7</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G25" s="10">
-        <v>29.6</v>
+        <v>24.7</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
+      <c r="K25" s="10">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="str" cm="1">
-        <f t="array" ref="A26">IF(C26="P",SUMPRODUCT(--(D$3:D$100&gt;D26),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A26">IF(C26="P",SUMPRODUCT(--(D$3:D$102&gt;D26),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>26.1</v>
+        <v>48.2</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>26.1</v>
+        <v>48.2</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="10">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="H26" s="11">
-        <v>26.1</v>
+        <v>28.9</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="12"/>
@@ -3942,33 +4313,31 @@
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" cm="1">
-        <f t="array" ref="A27">IF(C27="P",SUMPRODUCT(--(D$3:D$100&gt;D27),--(C$3:C$100="P"))+1,"")</f>
-        <v>8</v>
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27">IF(C27="P",SUMPRODUCT(--(D$3:D$102&gt;D27),--(C$3:C$102="P"))+1,"")</f>
+        <v/>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>24.1</v>
+        <v>46.5</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
-        <v>24.1</v>
+        <v>46.5</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="10">
-        <v>24.1</v>
+        <v>22.9</v>
       </c>
       <c r="H27" s="11">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="12"/>
@@ -3979,30 +4348,30 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="str" cm="1">
-        <f t="array" ref="A28">IF(C28="P",SUMPRODUCT(--(D$3:D$100&gt;D28),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A28">IF(C28="P",SUMPRODUCT(--(D$3:D$102&gt;D28),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>22.8</v>
+        <v>46.4</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
-        <v>22.8</v>
+        <v>46.4</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="10">
-        <v>22.8</v>
+        <v>26</v>
       </c>
       <c r="H28" s="11">
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
@@ -4013,43 +4382,75 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="str" cm="1">
-        <f t="array" ref="A29">IF(C29="P",SUMPRODUCT(--(D$3:D$100&gt;D29),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+        <f t="array" ref="A29">IF(C29="P",SUMPRODUCT(--(D$3:D$102&gt;D29),--(C$3:C$102="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="3"/>
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="1"/>
+        <v>41.5</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>21.2</v>
+      </c>
+      <c r="H29" s="11">
+        <v>20.3</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="str" cm="1">
-        <f t="array" ref="A30">IF(C30="P",SUMPRODUCT(--(D$3:D$100&gt;D30),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+        <f t="array" ref="A30">IF(C30="P",SUMPRODUCT(--(D$3:D$102&gt;D30),--(C$3:C$102="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="3"/>
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>22.8</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>22.8</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="str" cm="1">
-        <f t="array" ref="A31">IF(C31="P",SUMPRODUCT(--(D$3:D$100&gt;D31),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A31">IF(C31="P",SUMPRODUCT(--(D$3:D$102&gt;D31),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C31" s="9"/>
@@ -4067,7 +4468,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="str" cm="1">
-        <f t="array" ref="A32">IF(C32="P",SUMPRODUCT(--(D$3:D$100&gt;D32),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A32">IF(C32="P",SUMPRODUCT(--(D$3:D$102&gt;D32),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C32" s="9"/>
@@ -4085,7 +4486,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="str" cm="1">
-        <f t="array" ref="A33">IF(C33="P",SUMPRODUCT(--(D$3:D$100&gt;D33),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A33">IF(C33="P",SUMPRODUCT(--(D$3:D$102&gt;D33),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C33" s="9"/>
@@ -4103,7 +4504,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="str" cm="1">
-        <f t="array" ref="A34">IF(C34="P",SUMPRODUCT(--(D$3:D$100&gt;D34),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A34">IF(C34="P",SUMPRODUCT(--(D$3:D$102&gt;D34),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C34" s="9"/>
@@ -4121,7 +4522,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="str" cm="1">
-        <f t="array" ref="A35">IF(C35="P",SUMPRODUCT(--(D$3:D$100&gt;D35),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A35">IF(C35="P",SUMPRODUCT(--(D$3:D$102&gt;D35),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C35" s="9"/>
@@ -4139,7 +4540,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="str" cm="1">
-        <f t="array" ref="A36">IF(C36="P",SUMPRODUCT(--(D$3:D$100&gt;D36),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A36">IF(C36="P",SUMPRODUCT(--(D$3:D$102&gt;D36),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C36" s="9"/>
@@ -4157,7 +4558,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="str" cm="1">
-        <f t="array" ref="A37">IF(C37="P",SUMPRODUCT(--(D$3:D$100&gt;D37),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A37">IF(C37="P",SUMPRODUCT(--(D$3:D$102&gt;D37),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C37" s="9"/>
@@ -4175,7 +4576,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="str" cm="1">
-        <f t="array" ref="A38">IF(C38="P",SUMPRODUCT(--(D$3:D$100&gt;D38),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A38">IF(C38="P",SUMPRODUCT(--(D$3:D$102&gt;D38),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C38" s="9"/>
@@ -4193,7 +4594,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="str" cm="1">
-        <f t="array" ref="A39">IF(C39="P",SUMPRODUCT(--(D$3:D$100&gt;D39),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A39">IF(C39="P",SUMPRODUCT(--(D$3:D$102&gt;D39),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C39" s="9"/>
@@ -4211,7 +4612,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="str" cm="1">
-        <f t="array" ref="A40">IF(C40="P",SUMPRODUCT(--(D$3:D$100&gt;D40),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A40">IF(C40="P",SUMPRODUCT(--(D$3:D$102&gt;D40),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C40" s="9"/>
@@ -4229,7 +4630,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="str" cm="1">
-        <f t="array" ref="A41">IF(C41="P",SUMPRODUCT(--(D$3:D$100&gt;D41),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A41">IF(C41="P",SUMPRODUCT(--(D$3:D$102&gt;D41),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C41" s="9"/>
@@ -4247,7 +4648,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="str" cm="1">
-        <f t="array" ref="A42">IF(C42="P",SUMPRODUCT(--(D$3:D$100&gt;D42),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A42">IF(C42="P",SUMPRODUCT(--(D$3:D$102&gt;D42),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C42" s="9"/>
@@ -4265,7 +4666,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="str" cm="1">
-        <f t="array" ref="A43">IF(C43="P",SUMPRODUCT(--(D$3:D$100&gt;D43),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A43">IF(C43="P",SUMPRODUCT(--(D$3:D$102&gt;D43),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C43" s="9"/>
@@ -4283,7 +4684,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="str" cm="1">
-        <f t="array" ref="A44">IF(C44="P",SUMPRODUCT(--(D$3:D$100&gt;D44),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A44">IF(C44="P",SUMPRODUCT(--(D$3:D$102&gt;D44),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C44" s="9"/>
@@ -4301,7 +4702,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="str" cm="1">
-        <f t="array" ref="A45">IF(C45="P",SUMPRODUCT(--(D$3:D$100&gt;D45),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A45">IF(C45="P",SUMPRODUCT(--(D$3:D$102&gt;D45),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C45" s="9"/>
@@ -4319,7 +4720,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="str" cm="1">
-        <f t="array" ref="A46">IF(C46="P",SUMPRODUCT(--(D$3:D$100&gt;D46),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A46">IF(C46="P",SUMPRODUCT(--(D$3:D$102&gt;D46),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C46" s="9"/>
@@ -4337,7 +4738,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="str" cm="1">
-        <f t="array" ref="A47">IF(C47="P",SUMPRODUCT(--(D$3:D$100&gt;D47),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A47">IF(C47="P",SUMPRODUCT(--(D$3:D$102&gt;D47),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C47" s="9"/>
@@ -4355,7 +4756,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="str" cm="1">
-        <f t="array" ref="A48">IF(C48="P",SUMPRODUCT(--(D$3:D$100&gt;D48),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A48">IF(C48="P",SUMPRODUCT(--(D$3:D$102&gt;D48),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C48" s="9"/>
@@ -4373,7 +4774,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="str" cm="1">
-        <f t="array" ref="A49">IF(C49="P",SUMPRODUCT(--(D$3:D$100&gt;D49),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A49">IF(C49="P",SUMPRODUCT(--(D$3:D$102&gt;D49),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C49" s="9"/>
@@ -4391,7 +4792,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="str" cm="1">
-        <f t="array" ref="A50">IF(C50="P",SUMPRODUCT(--(D$3:D$100&gt;D50),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A50">IF(C50="P",SUMPRODUCT(--(D$3:D$102&gt;D50),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C50" s="9"/>
@@ -4409,7 +4810,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="str" cm="1">
-        <f t="array" ref="A51">IF(C51="P",SUMPRODUCT(--(D$3:D$100&gt;D51),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A51">IF(C51="P",SUMPRODUCT(--(D$3:D$102&gt;D51),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C51" s="9"/>
@@ -4427,7 +4828,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="str" cm="1">
-        <f t="array" ref="A52">IF(C52="P",SUMPRODUCT(--(D$3:D$100&gt;D52),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A52">IF(C52="P",SUMPRODUCT(--(D$3:D$102&gt;D52),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C52" s="9"/>
@@ -4445,7 +4846,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="str" cm="1">
-        <f t="array" ref="A53">IF(C53="P",SUMPRODUCT(--(D$3:D$100&gt;D53),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A53">IF(C53="P",SUMPRODUCT(--(D$3:D$102&gt;D53),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C53" s="9"/>
@@ -4463,7 +4864,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="str" cm="1">
-        <f t="array" ref="A54">IF(C54="P",SUMPRODUCT(--(D$3:D$100&gt;D54),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A54">IF(C54="P",SUMPRODUCT(--(D$3:D$102&gt;D54),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C54" s="9"/>
@@ -4481,7 +4882,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="str" cm="1">
-        <f t="array" ref="A55">IF(C55="P",SUMPRODUCT(--(D$3:D$100&gt;D55),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A55">IF(C55="P",SUMPRODUCT(--(D$3:D$102&gt;D55),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C55" s="9"/>
@@ -4499,7 +4900,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="str" cm="1">
-        <f t="array" ref="A56">IF(C56="P",SUMPRODUCT(--(D$3:D$100&gt;D56),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A56">IF(C56="P",SUMPRODUCT(--(D$3:D$102&gt;D56),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C56" s="9"/>
@@ -4517,7 +4918,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="str" cm="1">
-        <f t="array" ref="A57">IF(C57="P",SUMPRODUCT(--(D$3:D$100&gt;D57),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A57">IF(C57="P",SUMPRODUCT(--(D$3:D$102&gt;D57),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C57" s="9"/>
@@ -4535,7 +4936,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="str" cm="1">
-        <f t="array" ref="A58">IF(C58="P",SUMPRODUCT(--(D$3:D$100&gt;D58),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A58">IF(C58="P",SUMPRODUCT(--(D$3:D$102&gt;D58),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C58" s="9"/>
@@ -4553,7 +4954,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="str" cm="1">
-        <f t="array" ref="A59">IF(C59="P",SUMPRODUCT(--(D$3:D$100&gt;D59),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A59">IF(C59="P",SUMPRODUCT(--(D$3:D$102&gt;D59),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C59" s="9"/>
@@ -4571,7 +4972,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="str" cm="1">
-        <f t="array" ref="A60">IF(C60="P",SUMPRODUCT(--(D$3:D$100&gt;D60),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A60">IF(C60="P",SUMPRODUCT(--(D$3:D$102&gt;D60),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C60" s="9"/>
@@ -4589,7 +4990,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="str" cm="1">
-        <f t="array" ref="A61">IF(C61="P",SUMPRODUCT(--(D$3:D$100&gt;D61),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A61">IF(C61="P",SUMPRODUCT(--(D$3:D$102&gt;D61),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C61" s="9"/>
@@ -4607,7 +5008,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="str" cm="1">
-        <f t="array" ref="A62">IF(C62="P",SUMPRODUCT(--(D$3:D$100&gt;D62),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A62">IF(C62="P",SUMPRODUCT(--(D$3:D$102&gt;D62),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C62" s="9"/>
@@ -4625,7 +5026,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="str" cm="1">
-        <f t="array" ref="A63">IF(C63="P",SUMPRODUCT(--(D$3:D$100&gt;D63),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A63">IF(C63="P",SUMPRODUCT(--(D$3:D$102&gt;D63),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C63" s="9"/>
@@ -4643,7 +5044,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="str" cm="1">
-        <f t="array" ref="A64">IF(C64="P",SUMPRODUCT(--(D$3:D$100&gt;D64),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A64">IF(C64="P",SUMPRODUCT(--(D$3:D$102&gt;D64),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C64" s="9"/>
@@ -4661,7 +5062,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="str" cm="1">
-        <f t="array" ref="A65">IF(C65="P",SUMPRODUCT(--(D$3:D$100&gt;D65),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A65">IF(C65="P",SUMPRODUCT(--(D$3:D$102&gt;D65),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C65" s="9"/>
@@ -4679,7 +5080,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="str" cm="1">
-        <f t="array" ref="A66">IF(C66="P",SUMPRODUCT(--(D$3:D$100&gt;D66),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A66">IF(C66="P",SUMPRODUCT(--(D$3:D$102&gt;D66),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C66" s="9"/>
@@ -4697,7 +5098,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="str" cm="1">
-        <f t="array" ref="A67">IF(C67="P",SUMPRODUCT(--(D$3:D$100&gt;D67),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A67">IF(C67="P",SUMPRODUCT(--(D$3:D$102&gt;D67),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C67" s="9"/>
@@ -4715,7 +5116,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="str" cm="1">
-        <f t="array" ref="A68">IF(C68="P",SUMPRODUCT(--(D$3:D$100&gt;D68),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A68">IF(C68="P",SUMPRODUCT(--(D$3:D$102&gt;D68),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C68" s="9"/>
@@ -4733,7 +5134,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="str" cm="1">
-        <f t="array" ref="A69">IF(C69="P",SUMPRODUCT(--(D$3:D$100&gt;D69),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A69">IF(C69="P",SUMPRODUCT(--(D$3:D$102&gt;D69),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C69" s="9"/>
@@ -4751,7 +5152,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="str" cm="1">
-        <f t="array" ref="A70">IF(C70="P",SUMPRODUCT(--(D$3:D$100&gt;D70),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A70">IF(C70="P",SUMPRODUCT(--(D$3:D$102&gt;D70),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C70" s="9"/>
@@ -4769,7 +5170,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="str" cm="1">
-        <f t="array" ref="A71">IF(C71="P",SUMPRODUCT(--(D$3:D$100&gt;D71),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A71">IF(C71="P",SUMPRODUCT(--(D$3:D$102&gt;D71),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C71" s="9"/>
@@ -4787,7 +5188,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="str" cm="1">
-        <f t="array" ref="A72">IF(C72="P",SUMPRODUCT(--(D$3:D$100&gt;D72),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A72">IF(C72="P",SUMPRODUCT(--(D$3:D$102&gt;D72),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C72" s="9"/>
@@ -4805,7 +5206,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="str" cm="1">
-        <f t="array" ref="A73">IF(C73="P",SUMPRODUCT(--(D$3:D$100&gt;D73),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A73">IF(C73="P",SUMPRODUCT(--(D$3:D$102&gt;D73),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C73" s="9"/>
@@ -4823,7 +5224,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="str" cm="1">
-        <f t="array" ref="A74">IF(C74="P",SUMPRODUCT(--(D$3:D$100&gt;D74),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A74">IF(C74="P",SUMPRODUCT(--(D$3:D$102&gt;D74),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C74" s="9"/>
@@ -4841,7 +5242,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="str" cm="1">
-        <f t="array" ref="A75">IF(C75="P",SUMPRODUCT(--(D$3:D$100&gt;D75),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A75">IF(C75="P",SUMPRODUCT(--(D$3:D$102&gt;D75),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C75" s="9"/>
@@ -4859,7 +5260,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="str" cm="1">
-        <f t="array" ref="A76">IF(C76="P",SUMPRODUCT(--(D$3:D$100&gt;D76),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A76">IF(C76="P",SUMPRODUCT(--(D$3:D$102&gt;D76),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C76" s="9"/>
@@ -4877,7 +5278,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="str" cm="1">
-        <f t="array" ref="A77">IF(C77="P",SUMPRODUCT(--(D$3:D$100&gt;D77),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A77">IF(C77="P",SUMPRODUCT(--(D$3:D$102&gt;D77),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C77" s="9"/>
@@ -4895,7 +5296,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="str" cm="1">
-        <f t="array" ref="A78">IF(C78="P",SUMPRODUCT(--(D$3:D$100&gt;D78),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A78">IF(C78="P",SUMPRODUCT(--(D$3:D$102&gt;D78),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C78" s="9"/>
@@ -4913,7 +5314,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="str" cm="1">
-        <f t="array" ref="A79">IF(C79="P",SUMPRODUCT(--(D$3:D$100&gt;D79),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A79">IF(C79="P",SUMPRODUCT(--(D$3:D$102&gt;D79),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C79" s="9"/>
@@ -4931,7 +5332,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="str" cm="1">
-        <f t="array" ref="A80">IF(C80="P",SUMPRODUCT(--(D$3:D$100&gt;D80),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A80">IF(C80="P",SUMPRODUCT(--(D$3:D$102&gt;D80),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C80" s="9"/>
@@ -4949,7 +5350,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="str" cm="1">
-        <f t="array" ref="A81">IF(C81="P",SUMPRODUCT(--(D$3:D$100&gt;D81),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A81">IF(C81="P",SUMPRODUCT(--(D$3:D$102&gt;D81),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C81" s="9"/>
@@ -4967,7 +5368,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="str" cm="1">
-        <f t="array" ref="A82">IF(C82="P",SUMPRODUCT(--(D$3:D$100&gt;D82),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A82">IF(C82="P",SUMPRODUCT(--(D$3:D$102&gt;D82),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C82" s="9"/>
@@ -4985,7 +5386,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="str" cm="1">
-        <f t="array" ref="A83">IF(C83="P",SUMPRODUCT(--(D$3:D$100&gt;D83),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A83">IF(C83="P",SUMPRODUCT(--(D$3:D$102&gt;D83),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C83" s="9"/>
@@ -5003,7 +5404,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="str" cm="1">
-        <f t="array" ref="A84">IF(C84="P",SUMPRODUCT(--(D$3:D$100&gt;D84),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A84">IF(C84="P",SUMPRODUCT(--(D$3:D$102&gt;D84),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C84" s="9"/>
@@ -5021,7 +5422,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="str" cm="1">
-        <f t="array" ref="A85">IF(C85="P",SUMPRODUCT(--(D$3:D$100&gt;D85),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A85">IF(C85="P",SUMPRODUCT(--(D$3:D$102&gt;D85),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C85" s="9"/>
@@ -5039,7 +5440,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="str" cm="1">
-        <f t="array" ref="A86">IF(C86="P",SUMPRODUCT(--(D$3:D$100&gt;D86),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A86">IF(C86="P",SUMPRODUCT(--(D$3:D$102&gt;D86),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C86" s="9"/>
@@ -5057,7 +5458,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="str" cm="1">
-        <f t="array" ref="A87">IF(C87="P",SUMPRODUCT(--(D$3:D$100&gt;D87),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A87">IF(C87="P",SUMPRODUCT(--(D$3:D$102&gt;D87),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C87" s="9"/>
@@ -5075,7 +5476,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="str" cm="1">
-        <f t="array" ref="A88">IF(C88="P",SUMPRODUCT(--(D$3:D$100&gt;D88),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A88">IF(C88="P",SUMPRODUCT(--(D$3:D$102&gt;D88),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C88" s="9"/>
@@ -5093,7 +5494,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="str" cm="1">
-        <f t="array" ref="A89">IF(C89="P",SUMPRODUCT(--(D$3:D$100&gt;D89),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A89">IF(C89="P",SUMPRODUCT(--(D$3:D$102&gt;D89),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C89" s="9"/>
@@ -5111,7 +5512,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="str" cm="1">
-        <f t="array" ref="A90">IF(C90="P",SUMPRODUCT(--(D$3:D$100&gt;D90),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A90">IF(C90="P",SUMPRODUCT(--(D$3:D$102&gt;D90),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C90" s="9"/>
@@ -5129,7 +5530,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="str" cm="1">
-        <f t="array" ref="A91">IF(C91="P",SUMPRODUCT(--(D$3:D$100&gt;D91),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A91">IF(C91="P",SUMPRODUCT(--(D$3:D$102&gt;D91),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C91" s="9"/>
@@ -5147,7 +5548,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="str" cm="1">
-        <f t="array" ref="A92">IF(C92="P",SUMPRODUCT(--(D$3:D$100&gt;D92),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A92">IF(C92="P",SUMPRODUCT(--(D$3:D$102&gt;D92),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C92" s="9"/>
@@ -5165,7 +5566,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="str" cm="1">
-        <f t="array" ref="A93">IF(C93="P",SUMPRODUCT(--(D$3:D$100&gt;D93),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A93">IF(C93="P",SUMPRODUCT(--(D$3:D$102&gt;D93),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C93" s="9"/>
@@ -5183,7 +5584,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="str" cm="1">
-        <f t="array" ref="A94">IF(C94="P",SUMPRODUCT(--(D$3:D$100&gt;D94),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A94">IF(C94="P",SUMPRODUCT(--(D$3:D$102&gt;D94),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C94" s="9"/>
@@ -5201,7 +5602,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="str" cm="1">
-        <f t="array" ref="A95">IF(C95="P",SUMPRODUCT(--(D$3:D$100&gt;D95),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A95">IF(C95="P",SUMPRODUCT(--(D$3:D$102&gt;D95),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C95" s="9"/>
@@ -5219,7 +5620,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="str" cm="1">
-        <f t="array" ref="A96">IF(C96="P",SUMPRODUCT(--(D$3:D$100&gt;D96),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A96">IF(C96="P",SUMPRODUCT(--(D$3:D$102&gt;D96),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C96" s="9"/>
@@ -5237,7 +5638,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="str" cm="1">
-        <f t="array" ref="A97">IF(C97="P",SUMPRODUCT(--(D$3:D$100&gt;D97),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A97">IF(C97="P",SUMPRODUCT(--(D$3:D$102&gt;D97),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C97" s="9"/>
@@ -5255,7 +5656,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="str" cm="1">
-        <f t="array" ref="A98">IF(C98="P",SUMPRODUCT(--(D$3:D$100&gt;D98),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A98">IF(C98="P",SUMPRODUCT(--(D$3:D$102&gt;D98),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C98" s="9"/>
@@ -5273,7 +5674,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="str" cm="1">
-        <f t="array" ref="A99">IF(C99="P",SUMPRODUCT(--(D$3:D$100&gt;D99),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A99">IF(C99="P",SUMPRODUCT(--(D$3:D$102&gt;D99),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C99" s="9"/>
@@ -5291,7 +5692,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="str" cm="1">
-        <f t="array" ref="A100">IF(C100="P",SUMPRODUCT(--(D$3:D$100&gt;D100),--(C$3:C$100="P"))+1,"")</f>
+        <f t="array" ref="A100">IF(C100="P",SUMPRODUCT(--(D$3:D$102&gt;D100),--(C$3:C$102="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C100" s="9"/>
@@ -5307,6 +5708,42 @@
       <c r="M100" s="1"/>
       <c r="N100" s="3"/>
     </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" t="str" cm="1">
+        <f t="array" ref="A101">IF(C101="P",SUMPRODUCT(--(D$3:D$102&gt;D101),--(C$3:C$102="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" t="str" cm="1">
+        <f t="array" ref="A102">IF(C102="P",SUMPRODUCT(--(D$3:D$102&gt;D102),--(C$3:C$102="P"))+1,"")</f>
+        <v/>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N2" xr:uid="{05718F54-B297-D34C-A083-EC279B954987}">
     <filterColumn colId="6" showButton="0"/>
@@ -5315,8 +5752,8 @@
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N100">
-      <sortCondition descending="1" ref="D1:D100"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N102">
+      <sortCondition descending="1" ref="D1:D102"/>
     </sortState>
   </autoFilter>
   <mergeCells count="8">
@@ -5335,7 +5772,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CB8222-956D-6A4F-AA92-342E545E900E}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -5351,379 +5788,434 @@
     <col min="12" max="12" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="21"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="J2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" cm="1">
         <f t="array" ref="A3">IF(C3="P",SUMPRODUCT(--(D$3:D$100&gt;D3),--(C$3:C$100="P"))+1,"")</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="26">
-        <f>E3+F3</f>
+        <v>29</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D8" si="0">E3+F3</f>
         <v>97.94</v>
       </c>
-      <c r="E3" s="26">
-        <f>MAX(G3:L3)</f>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E8" si="1">MAX(G3:L3)</f>
         <v>49.13</v>
       </c>
-      <c r="F3" s="26">
-        <f>IF(COUNT(G3:L3)&gt;1,LARGE(G3:L3,2),0)</f>
+      <c r="F3" s="13">
+        <f t="shared" ref="F3:F8" si="2">IF(COUNT(G3:L3)&gt;1,LARGE(G3:L3,2),0)</f>
         <v>48.81</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="14">
         <v>48.81</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="13">
         <v>49.13</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="13">
         <v>9.69</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="28"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="14">
+        <v>24.64</v>
+      </c>
+      <c r="K3" s="13">
+        <v>4.83</v>
+      </c>
+      <c r="L3" s="15">
+        <v>45.41</v>
+      </c>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" cm="1">
         <f t="array" ref="A4">IF(C4="P",SUMPRODUCT(--(D$3:D$100&gt;D4),--(C$3:C$100="P"))+1,"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="26">
-        <f>E4+F4</f>
+        <v>29</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" si="0"/>
         <v>94.830000000000013</v>
       </c>
-      <c r="E4" s="26">
-        <f>MAX(G4:L4)</f>
+      <c r="E4" s="13">
+        <f t="shared" si="1"/>
         <v>47.7</v>
       </c>
-      <c r="F4" s="26">
-        <f>IF(COUNT(G4:L4)&gt;1,LARGE(G4:L4,2),0)</f>
+      <c r="F4" s="13">
+        <f t="shared" si="2"/>
         <v>47.13</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="14">
         <v>47.7</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="13">
         <v>47.13</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="13">
         <v>46.45</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="28"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="14">
+        <v>46.79</v>
+      </c>
+      <c r="K4" s="13">
+        <v>14.54</v>
+      </c>
+      <c r="L4" s="15">
+        <v>46.71</v>
+      </c>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" cm="1">
         <f t="array" ref="A5">IF(C5="P",SUMPRODUCT(--(D$3:D$100&gt;D5),--(C$3:C$100="P"))+1,"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="26">
-        <f>E5+F5</f>
-        <v>93.34</v>
-      </c>
-      <c r="E5" s="26">
-        <f>MAX(G5:L5)</f>
+        <v>29</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>95.14</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>47.78</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="2"/>
         <v>47.36</v>
       </c>
-      <c r="F5" s="26">
-        <f>IF(COUNT(G5:L5)&gt;1,LARGE(G5:L5,2),0)</f>
+      <c r="G5" s="14">
+        <v>41.93</v>
+      </c>
+      <c r="H5" s="13">
         <v>45.98</v>
       </c>
-      <c r="G5" s="27">
-        <v>41.93</v>
-      </c>
-      <c r="H5" s="26">
-        <v>45.98</v>
-      </c>
-      <c r="I5" s="26">
+      <c r="I5" s="13">
         <v>47.36</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="28"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="14">
+        <v>46.94</v>
+      </c>
+      <c r="K5" s="13">
+        <v>44.44</v>
+      </c>
+      <c r="L5" s="15">
+        <v>47.78</v>
+      </c>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="str" cm="1">
         <f t="array" ref="A6">IF(C6="P",SUMPRODUCT(--(D$3:D$100&gt;D6),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="26">
-        <f>E6+F6</f>
-        <v>70.650000000000006</v>
-      </c>
-      <c r="E6" s="26">
-        <f>MAX(G6:L6)</f>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>84.06</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
         <v>44.2</v>
       </c>
-      <c r="F6" s="26">
-        <f>IF(COUNT(G6:L6)&gt;1,LARGE(G6:L6,2),0)</f>
+      <c r="F6" s="13">
+        <f t="shared" si="2"/>
+        <v>39.86</v>
+      </c>
+      <c r="G6" s="14">
+        <v>44.2</v>
+      </c>
+      <c r="H6" s="13">
         <v>26.45</v>
       </c>
-      <c r="G6" s="27">
-        <v>44.2</v>
-      </c>
-      <c r="H6" s="26">
-        <v>26.45</v>
-      </c>
-      <c r="I6" s="26">
+      <c r="I6" s="13">
         <v>23.1</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="str" cm="1">
+      <c r="J6" s="14">
+        <v>39.86</v>
+      </c>
+      <c r="K6" s="13">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="L6" s="15">
+        <v>22.07</v>
+      </c>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" cm="1">
         <f t="array" ref="A7">IF(C7="P",SUMPRODUCT(--(D$3:D$100&gt;D7),--(C$3:C$100="P"))+1,"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="26">
-        <f>E7+F7</f>
-        <v>30.75</v>
-      </c>
-      <c r="E7" s="26">
-        <f>MAX(G7:L7)</f>
-        <v>25.75</v>
-      </c>
-      <c r="F7" s="26">
-        <f>IF(COUNT(G7:L7)&gt;1,LARGE(G7:L7,2),0)</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="27">
-        <v>5</v>
-      </c>
-      <c r="H7" s="26">
-        <v>25.75</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>65.87</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>47.09</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="2"/>
+        <v>18.78</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
+        <v>18.78</v>
+      </c>
+      <c r="K7" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="L7" s="15">
+        <v>47.09</v>
+      </c>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="str" cm="1">
         <f t="array" ref="A8">IF(C8="P",SUMPRODUCT(--(D$3:D$100&gt;D8),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>56.04</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>30.29</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="2"/>
+        <v>25.75</v>
+      </c>
+      <c r="G8" s="14">
+        <v>5</v>
+      </c>
+      <c r="H8" s="13">
+        <v>25.75</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="K8" s="13">
+        <v>30.29</v>
+      </c>
+      <c r="L8" s="15">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="str" cm="1">
         <f t="array" ref="A9">IF(C9="P",SUMPRODUCT(--(D$3:D$100&gt;D9),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="str" cm="1">
         <f t="array" ref="A10">IF(C10="P",SUMPRODUCT(--(D$3:D$100&gt;D10),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="str" cm="1">
         <f t="array" ref="A11">IF(C11="P",SUMPRODUCT(--(D$3:D$100&gt;D11),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="28"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="str" cm="1">
         <f t="array" ref="A12">IF(C12="P",SUMPRODUCT(--(D$3:D$100&gt;D12),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="str" cm="1">
         <f t="array" ref="A13">IF(C13="P",SUMPRODUCT(--(D$3:D$100&gt;D13),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="str" cm="1">
         <f t="array" ref="A14">IF(C14="P",SUMPRODUCT(--(D$3:D$100&gt;D14),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="str" cm="1">
         <f t="array" ref="A15">IF(C15="P",SUMPRODUCT(--(D$3:D$100&gt;D15),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="str" cm="1">
         <f t="array" ref="A16">IF(C16="P",SUMPRODUCT(--(D$3:D$100&gt;D16),--(C$3:C$100="P"))+1,"")</f>
         <v/>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="28"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str" cm="1">
